--- a/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -444,6 +444,7 @@
         <u/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> PANASONIC SOFTWARE DEVELOPMENT CENTER DALIAN CO.,LTD</t>
     </r>
@@ -763,14 +764,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>${na.openingdate}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${na.enddate}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>${na.deliveryfinshdate}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -828,6 +821,14 @@
   <si>
     <t xml:space="preserve">Office Scan </t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+    <phoneticPr fontId="30"/>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+    <phoneticPr fontId="30"/>
   </si>
 </sst>
 </file>
@@ -935,6 +936,7 @@
     <font>
       <sz val="10"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -983,19 +985,23 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1657,7 +1663,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1931,57 +1937,126 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1994,27 +2069,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2026,9 +2080,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2062,86 +2113,119 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2149,12 +2233,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2179,21 +2257,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2203,62 +2266,35 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2288,36 +2324,6 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2347,6 +2353,10 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2655,8 +2665,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2682,7 +2692,7 @@
         <v>103</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="80" t="s">
         <v>96</v>
@@ -2765,7 +2775,7 @@
         <v>123</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="80" t="s">
         <v>96</v>
@@ -2829,8 +2839,8 @@
       <c r="A14" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="77" t="s">
-        <v>128</v>
+      <c r="B14" s="248" t="s">
+        <v>143</v>
       </c>
       <c r="C14" s="80" t="s">
         <v>96</v>
@@ -2842,8 +2852,8 @@
       <c r="A15" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="77" t="s">
-        <v>129</v>
+      <c r="B15" s="248" t="s">
+        <v>144</v>
       </c>
       <c r="C15" s="80" t="s">
         <v>96</v>
@@ -2856,7 +2866,7 @@
         <v>111</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C16" s="80" t="s">
         <v>96</v>
@@ -2869,7 +2879,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C17" s="80" t="s">
         <v>96</v>
@@ -2879,10 +2889,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="93" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="80" t="s">
         <v>96</v>
@@ -2895,7 +2905,7 @@
         <v>99</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" s="79" t="s">
         <v>95</v>
@@ -2908,7 +2918,7 @@
         <v>100</v>
       </c>
       <c r="B20" s="87" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" s="80" t="s">
         <v>96</v>
@@ -2940,10 +2950,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="94" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C23" s="80" t="s">
         <v>96</v>
@@ -2953,10 +2963,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="94" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C24" s="80" t="s">
         <v>96</v>
@@ -2966,7 +2976,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="94" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="73" t="str">
         <f>"GF-"&amp;B12</f>
@@ -2983,7 +2993,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D26" s="101"/>
       <c r="E26" s="102"/>
@@ -2993,7 +3003,7 @@
         <v>112</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D27" s="103"/>
       <c r="E27" s="104"/>
@@ -3084,34 +3094,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="96"/>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="173" t="str">
+      <c r="C3" s="111" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="174"/>
-      <c r="I3" s="174"/>
-      <c r="J3" s="175"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="113"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3125,203 +3135,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="169"/>
-      <c r="D5" s="170" t="str">
+      <c r="C5" s="107"/>
+      <c r="D5" s="108" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="172"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="110"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="176" t="str">
+      <c r="C6" s="114"/>
+      <c r="D6" s="115" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="177"/>
-      <c r="J6" s="178"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="111" t="str">
+      <c r="C7" s="114"/>
+      <c r="D7" s="175" t="str">
         <f>記入!B14</f>
-        <v>${na.openingdate}</v>
-      </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+        <v>${statime[0]}</v>
+      </c>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
       <c r="G7" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="113" t="str">
+      <c r="H7" s="177" t="str">
         <f>記入!B15</f>
-        <v>${na.enddate}</v>
-      </c>
-      <c r="I7" s="113"/>
-      <c r="J7" s="114"/>
+        <v>${statime[1]}</v>
+      </c>
+      <c r="I7" s="177"/>
+      <c r="J7" s="178"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="120" t="str">
+      <c r="C8" s="114"/>
+      <c r="D8" s="118" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="118" t="s">
+      <c r="E8" s="119"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="120" t="s">
+      <c r="H8" s="122"/>
+      <c r="I8" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="121"/>
+      <c r="J8" s="120"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="154" t="str">
+      <c r="C9" s="124"/>
+      <c r="D9" s="129" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="156"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="127"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="159"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="127"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="134"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="127"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="159"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="134"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="127"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="159"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="134"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="127"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="159"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="134"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="127"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="159"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="134"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="127"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="159"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="134"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="127"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="159"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="134"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="127"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="159"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="134"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="129"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="162"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="137"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3335,91 +3345,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="163" t="str">
+      <c r="C21" s="124"/>
+      <c r="D21" s="138" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="165"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="140"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="127"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="117"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="143"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="127"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="117"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="143"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="127"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="117"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="143"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="127"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="117"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="143"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="129"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="117"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="143"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="131" t="s">
+      <c r="B27" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="132"/>
-      <c r="D27" s="133" t="str">
+      <c r="C27" s="114"/>
+      <c r="D27" s="149" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="136"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="152"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3433,112 +3443,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="137" t="s">
+      <c r="B29" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="138"/>
-      <c r="D29" s="118" t="s">
+      <c r="C29" s="153"/>
+      <c r="D29" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="120" t="str">
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="118" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="121"/>
+      <c r="J29" s="120"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="127"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="118" t="s">
+      <c r="B30" s="125"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="120" t="s">
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="121"/>
+      <c r="J30" s="120"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="140"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="146" t="s">
+      <c r="B31" s="155"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="147"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="118" t="s">
+      <c r="E31" s="162"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="119"/>
-      <c r="I31" s="120" t="str">
+      <c r="H31" s="122"/>
+      <c r="I31" s="118" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="121"/>
+      <c r="J31" s="120"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="140"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="118" t="s">
+      <c r="B32" s="155"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="119"/>
-      <c r="I32" s="153" t="str">
+      <c r="H32" s="122"/>
+      <c r="I32" s="170" t="str">
         <f>記入!B26</f>
         <v xml:space="preserve">Office Scan </v>
       </c>
-      <c r="J32" s="121"/>
+      <c r="J32" s="120"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="141"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="118" t="s">
+      <c r="B33" s="156"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="119"/>
-      <c r="I33" s="120" t="s">
+      <c r="H33" s="122"/>
+      <c r="I33" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="121"/>
+      <c r="J33" s="120"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="122" t="s">
+      <c r="B35" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="123"/>
-      <c r="D35" s="122" t="s">
+      <c r="C35" s="146"/>
+      <c r="D35" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="124"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="123"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="146"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3586,44 +3596,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="125" t="s">
+      <c r="E45" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="126"/>
-      <c r="G45" s="125" t="s">
+      <c r="F45" s="124"/>
+      <c r="G45" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="126"/>
+      <c r="H45" s="124"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="127"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="128"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="126"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="129"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="130"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="128"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="105"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="106"/>
+      <c r="E48" s="171"/>
+      <c r="F48" s="172"/>
+      <c r="G48" s="171"/>
+      <c r="H48" s="172"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="107"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="108"/>
+      <c r="E49" s="173"/>
+      <c r="F49" s="174"/>
+      <c r="G49" s="173"/>
+      <c r="H49" s="174"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="109"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="110"/>
+      <c r="E50" s="167"/>
+      <c r="F50" s="169"/>
+      <c r="G50" s="167"/>
+      <c r="H50" s="169"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3631,25 +3641,16 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="E45:F47"/>
@@ -3664,16 +3665,25 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3717,28 +3727,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="96"/>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3785,12 +3795,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="185" t="s">
+      <c r="F6" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3811,12 +3821,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="185" t="s">
+      <c r="F8" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3866,160 +3876,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="187"/>
-      <c r="D13" s="188" t="str">
+      <c r="C13" s="211"/>
+      <c r="D13" s="212" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="190"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="214"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="192"/>
-      <c r="D14" s="193" t="str">
+      <c r="C14" s="181"/>
+      <c r="D14" s="188" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="195"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="190"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="191" t="s">
+      <c r="B15" s="187" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="192"/>
+      <c r="C15" s="181"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="199" t="s">
+      <c r="E15" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="192"/>
-      <c r="G15" s="196" t="str">
+      <c r="F15" s="181"/>
+      <c r="G15" s="215" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="197"/>
-      <c r="I15" s="198"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="217"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="191" t="s">
+      <c r="B16" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="192"/>
+      <c r="C16" s="181"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="199" t="s">
+      <c r="E16" s="180" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="192"/>
-      <c r="G16" s="193" t="s">
+      <c r="F16" s="181"/>
+      <c r="G16" s="188" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="195"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="190"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="202" t="s">
+      <c r="B17" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="199" t="s">
+      <c r="C17" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="192"/>
-      <c r="E17" s="199" t="s">
+      <c r="D17" s="181"/>
+      <c r="E17" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="192"/>
+      <c r="F17" s="181"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="199" t="s">
+      <c r="H17" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="205"/>
+      <c r="I17" s="194"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="203"/>
-      <c r="C18" s="179" t="str">
+      <c r="B18" s="192"/>
+      <c r="C18" s="205" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="199" t="s">
+      <c r="D18" s="206"/>
+      <c r="E18" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="192"/>
+      <c r="F18" s="181"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="210"/>
-      <c r="I18" s="211"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="200"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="203"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="207"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="196"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="213"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="202"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="203"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="207"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="196"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="202"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="203"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="207"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="196"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="213"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="202"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="203"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="196"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="213"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="202"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="204"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="201"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="209"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="198"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="215"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="204"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4061,14 +4071,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="216" t="s">
+      <c r="F27" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="216" t="str">
+      <c r="G27" s="179" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="216"/>
+      <c r="H27" s="179"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4076,11 +4086,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="199" t="s">
+      <c r="F28" s="179"/>
+      <c r="G28" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="192"/>
+      <c r="H28" s="181"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4088,7 +4098,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="216"/>
+      <c r="F29" s="179"/>
       <c r="G29" s="26" t="s">
         <v>45</v>
       </c>
@@ -4102,9 +4112,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="217"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4112,9 +4122,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="217"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4122,9 +4132,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="217"/>
-      <c r="H32" s="217"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="182"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4174,11 +4184,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B16:C16"/>
@@ -4195,21 +4215,11 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4224,7 +4234,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4244,28 +4254,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="96"/>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="207" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="208" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4312,12 +4322,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="185" t="s">
+      <c r="F6" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
+      <c r="G6" s="209"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4338,12 +4348,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="185" t="s">
+      <c r="F8" s="209" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4392,160 +4402,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="187"/>
-      <c r="D13" s="188" t="str">
+      <c r="C13" s="211"/>
+      <c r="D13" s="212" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="190"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="214"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="192"/>
-      <c r="D14" s="193" t="str">
+      <c r="C14" s="181"/>
+      <c r="D14" s="188" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="194"/>
-      <c r="I14" s="195"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="190"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="191" t="s">
+      <c r="B15" s="187" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="192"/>
+      <c r="C15" s="181"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="199" t="s">
+      <c r="E15" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="192"/>
-      <c r="G15" s="196" t="str">
+      <c r="F15" s="181"/>
+      <c r="G15" s="215" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="197"/>
-      <c r="I15" s="198"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="217"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="191" t="s">
+      <c r="B16" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="192"/>
+      <c r="C16" s="181"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="199" t="s">
+      <c r="E16" s="180" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="192"/>
-      <c r="G16" s="193" t="s">
+      <c r="F16" s="181"/>
+      <c r="G16" s="188" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="195"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="190"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="202" t="s">
+      <c r="B17" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="199" t="s">
+      <c r="C17" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="192"/>
-      <c r="E17" s="199" t="s">
+      <c r="D17" s="181"/>
+      <c r="E17" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="192"/>
+      <c r="F17" s="181"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="199" t="s">
+      <c r="H17" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="205"/>
+      <c r="I17" s="194"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="203"/>
-      <c r="C18" s="179" t="str">
+      <c r="B18" s="192"/>
+      <c r="C18" s="205" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="199" t="s">
+      <c r="D18" s="206"/>
+      <c r="E18" s="180" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="192"/>
+      <c r="F18" s="181"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="210"/>
-      <c r="I18" s="211"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="200"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="203"/>
-      <c r="C19" s="181"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="207"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="196"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="213"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="202"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="203"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="207"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="196"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="202"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="203"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="207"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="196"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="213"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="202"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="203"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="207"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="196"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="213"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="202"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="204"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="201"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="209"/>
+      <c r="B23" s="193"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="198"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="214"/>
-      <c r="I23" s="215"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="204"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4587,14 +4597,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="216" t="s">
+      <c r="F27" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="216" t="str">
+      <c r="G27" s="179" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="216"/>
+      <c r="H27" s="179"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4602,11 +4612,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="199" t="s">
+      <c r="F28" s="179"/>
+      <c r="G28" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="192"/>
+      <c r="H28" s="181"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4614,7 +4624,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="216"/>
+      <c r="F29" s="179"/>
       <c r="G29" s="26" t="s">
         <v>45</v>
       </c>
@@ -4628,9 +4638,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="217"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4638,9 +4648,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="217"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4648,9 +4658,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="217"/>
-      <c r="H32" s="217"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="182"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4700,6 +4710,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4716,26 +4746,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4772,55 +4782,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="228" t="s">
+      <c r="C3" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="229"/>
+      <c r="D3" s="219"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="231"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="221"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="232" t="str">
+      <c r="C5" s="222" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="233"/>
+      <c r="D5" s="223"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="235"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="225"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="226" t="str">
+      <c r="C7" s="236" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="227"/>
+      <c r="D7" s="237"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="227"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="237"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="220" t="str">
+      <c r="C9" s="230" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="221"/>
+      <c r="D9" s="231"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -4836,34 +4846,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="222" t="s">
+      <c r="C11" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="223"/>
+      <c r="D11" s="233"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="224" t="str">
+      <c r="C12" s="234" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="225"/>
+      <c r="D12" s="235"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="236" t="str">
+      <c r="C13" s="226" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="237"/>
+      <c r="D13" s="227"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="218"/>
-      <c r="D14" s="219"/>
+      <c r="C14" s="228"/>
+      <c r="D14" s="229"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -4889,16 +4899,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:D8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="146">
   <si>
     <t>納　　入　　物　　品</t>
   </si>
@@ -251,12 +251,6 @@
   </si>
   <si>
     <t>住　所</t>
-  </si>
-  <si>
-    <t>　中国辽宁省大连市软件园东路23号</t>
-  </si>
-  <si>
-    <t>　15号楼401室</t>
   </si>
   <si>
     <t>　松下电器软件开发(大连) 有限公司</t>
@@ -829,6 +823,18 @@
   <si>
     <t>${statime[1]}</t>
     <phoneticPr fontId="30"/>
+  </si>
+  <si>
+    <t>　中国遼寧省大連市高新技術産業園区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>　中国遼寧省大連市高新技術産業園区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>　黄浦路900号30号楼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1916,6 +1922,10 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1937,116 +1947,38 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2054,8 +1986,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2069,6 +2010,27 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2080,6 +2042,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2113,188 +2078,203 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2324,6 +2304,36 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2353,10 +2363,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2665,7 +2671,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
@@ -2678,335 +2684,335 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="D1" s="99" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="100"/>
+      <c r="A1" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="D1" s="100" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="101"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="94" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C3" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="1:5" s="72" customFormat="1">
       <c r="A4" s="93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
+        <v>93</v>
+      </c>
+      <c r="D4" s="102"/>
+      <c r="E4" s="103"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="93" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D5" s="102"/>
+      <c r="E5" s="103"/>
     </row>
     <row r="6" spans="1:5" s="72" customFormat="1">
       <c r="A6" s="95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="102"/>
+        <v>93</v>
+      </c>
+      <c r="D6" s="102"/>
+      <c r="E6" s="103"/>
     </row>
     <row r="7" spans="1:5" s="72" customFormat="1">
       <c r="A7" s="95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" s="75"/>
       <c r="C7" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="102"/>
+        <v>93</v>
+      </c>
+      <c r="D7" s="102"/>
+      <c r="E7" s="103"/>
     </row>
     <row r="8" spans="1:5" s="72" customFormat="1">
       <c r="A8" s="93" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="76"/>
       <c r="C8" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
+        <v>93</v>
+      </c>
+      <c r="D8" s="102"/>
+      <c r="E8" s="103"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="94" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D9" s="102"/>
+      <c r="E9" s="103"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="95" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D10" s="102"/>
+      <c r="E10" s="103"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="95" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="93" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="93" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="248" t="s">
-        <v>143</v>
+        <v>107</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>141</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="93" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="248" t="s">
-        <v>144</v>
+        <v>108</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>142</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="93" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="93" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D17" s="102"/>
+      <c r="E17" s="103"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="93" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
+        <v>93</v>
+      </c>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="87" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="93" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" s="88"/>
       <c r="C21" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
+        <v>93</v>
+      </c>
+      <c r="D21" s="102"/>
+      <c r="E21" s="103"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="93" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B22" s="88"/>
       <c r="C22" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
+        <v>93</v>
+      </c>
+      <c r="D22" s="102"/>
+      <c r="E22" s="103"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B23" s="78" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D23" s="102"/>
+      <c r="E23" s="103"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="94" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B24" s="73" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C24" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D24" s="102"/>
+      <c r="E24" s="103"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="94" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B25" s="73" t="str">
         <f>"GF-"&amp;B12</f>
         <v>GF-${na.contractnumber}</v>
       </c>
       <c r="C25" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
+        <v>94</v>
+      </c>
+      <c r="D25" s="102"/>
+      <c r="E25" s="103"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="94" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
+        <v>140</v>
+      </c>
+      <c r="D26" s="102"/>
+      <c r="E26" s="103"/>
     </row>
     <row r="27" spans="1:5" ht="13.5" thickBot="1">
       <c r="A27" s="94" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104"/>
+        <v>139</v>
+      </c>
+      <c r="D27" s="104"/>
+      <c r="E27" s="105"/>
     </row>
     <row r="28" spans="1:5" ht="13.5">
       <c r="A28" s="2"/>
@@ -3094,34 +3100,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="96"/>
-      <c r="B1" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
+      <c r="B1" s="169" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="111" t="str">
+      <c r="C3" s="174" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="176"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3135,203 +3141,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108" t="str">
+      <c r="C5" s="170"/>
+      <c r="D5" s="171" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="173"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115" t="str">
+      <c r="C6" s="133"/>
+      <c r="D6" s="177" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="179"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="175" t="str">
+      <c r="C7" s="133"/>
+      <c r="D7" s="112" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="177" t="str">
+        <v>56</v>
+      </c>
+      <c r="H7" s="114" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="177"/>
-      <c r="J7" s="178"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="115"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="118" t="str">
+      <c r="C8" s="133"/>
+      <c r="D8" s="121" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="121" t="s">
+      <c r="E8" s="168"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="118" t="s">
+      <c r="H8" s="120"/>
+      <c r="I8" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="120"/>
+      <c r="J8" s="122"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="129" t="str">
+      <c r="C9" s="127"/>
+      <c r="D9" s="155" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="157"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="125"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="134"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="160"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="125"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="134"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="125"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="134"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="160"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="125"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="134"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="125"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="134"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="125"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="134"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="160"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="125"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="160"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="125"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="134"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="160"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="125"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="134"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="160"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="127"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="137"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="163"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3345,91 +3351,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="138" t="str">
+      <c r="C21" s="127"/>
+      <c r="D21" s="164" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="140"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="166"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="125"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="143"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="125"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="143"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="125"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="143"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="125"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="143"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="127"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="143"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="106" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="149" t="str">
+      <c r="B27" s="132" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="133"/>
+      <c r="D27" s="134" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="152"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="137"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3443,112 +3449,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="153"/>
-      <c r="D29" s="121" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="118" t="str">
+      <c r="C29" s="139"/>
+      <c r="D29" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="121" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="120"/>
+      <c r="J29" s="122"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="125"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="121" t="s">
+      <c r="B30" s="128"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="118" t="s">
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="120"/>
+      <c r="J30" s="122"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="155"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="161" t="s">
+      <c r="B31" s="141"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="162"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="121" t="s">
+      <c r="E31" s="148"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="122"/>
-      <c r="I31" s="118" t="str">
+      <c r="H31" s="120"/>
+      <c r="I31" s="121" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="120"/>
+      <c r="J31" s="122"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="155"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="121" t="s">
+      <c r="B32" s="141"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="122"/>
-      <c r="I32" s="170" t="str">
+      <c r="H32" s="120"/>
+      <c r="I32" s="154" t="str">
         <f>記入!B26</f>
         <v xml:space="preserve">Office Scan </v>
       </c>
-      <c r="J32" s="120"/>
+      <c r="J32" s="122"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="156"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="121" t="s">
+      <c r="B33" s="142"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="122"/>
-      <c r="I33" s="118" t="s">
+      <c r="H33" s="120"/>
+      <c r="I33" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="120"/>
+      <c r="J33" s="122"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="145" t="s">
+      <c r="B35" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="146"/>
-      <c r="D35" s="145" t="s">
+      <c r="C35" s="124"/>
+      <c r="D35" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="146"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="124"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3596,44 +3602,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="148" t="s">
+      <c r="E45" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="124"/>
-      <c r="G45" s="148" t="s">
+      <c r="F45" s="127"/>
+      <c r="G45" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="124"/>
+      <c r="H45" s="127"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="125"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="126"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="129"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="127"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="128"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="131"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="171"/>
-      <c r="F48" s="172"/>
-      <c r="G48" s="171"/>
-      <c r="H48" s="172"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="107"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="173"/>
-      <c r="F49" s="174"/>
-      <c r="G49" s="173"/>
-      <c r="H49" s="174"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="109"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="167"/>
-      <c r="F50" s="169"/>
-      <c r="G50" s="167"/>
-      <c r="H50" s="169"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="111"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3641,16 +3647,25 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="E45:F47"/>
@@ -3665,25 +3680,16 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3709,7 +3715,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3727,28 +3735,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="96"/>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3757,7 +3765,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="44" t="str">
         <f>記入!B16</f>
@@ -3795,12 +3803,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="209" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
+      <c r="F6" s="186" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3808,7 +3816,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -3821,12 +3829,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="209" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
+      <c r="F8" s="186" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3876,165 +3884,165 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="211"/>
-      <c r="D13" s="212" t="str">
+      <c r="C13" s="188"/>
+      <c r="D13" s="189" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="213"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="214"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="191"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="187" t="s">
+      <c r="B14" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="181"/>
-      <c r="D14" s="188" t="str">
+      <c r="C14" s="193"/>
+      <c r="D14" s="194" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="190"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="196"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="187" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="181"/>
+      <c r="B15" s="192" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="193"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="180" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="181"/>
-      <c r="G15" s="215" t="str">
+      <c r="E15" s="200" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="193"/>
+      <c r="G15" s="197" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="216"/>
-      <c r="I15" s="217"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="187" t="s">
+      <c r="B16" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="181"/>
+      <c r="C16" s="193"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="180" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="181"/>
-      <c r="G16" s="188" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="189"/>
-      <c r="I16" s="190"/>
+      <c r="E16" s="200" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="193"/>
+      <c r="G16" s="194" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="195"/>
+      <c r="I16" s="196"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="191" t="s">
+      <c r="B17" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="180" t="s">
+      <c r="C17" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="180" t="s">
+      <c r="D17" s="193"/>
+      <c r="E17" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="181"/>
+      <c r="F17" s="193"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="180" t="s">
+      <c r="H17" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="194"/>
+      <c r="I17" s="206"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="192"/>
-      <c r="C18" s="205" t="str">
+      <c r="B18" s="204"/>
+      <c r="C18" s="180" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="206"/>
-      <c r="E18" s="180" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="181"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="200" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="193"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="199"/>
-      <c r="I18" s="200"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="212"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="192"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="196"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="208"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="202"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="214"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="192"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="196"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="208"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="202"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="214"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="192"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="196"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="208"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="202"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="214"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="192"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="196"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="208"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="202"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="214"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="193"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="198"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="210"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="204"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="216"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
       <c r="C24" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="29"/>
@@ -4047,7 +4055,7 @@
     <row r="25" spans="2:14" ht="21.75" customHeight="1">
       <c r="B25" s="29"/>
       <c r="C25" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="29"/>
@@ -4071,14 +4079,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="179" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="179" t="str">
+      <c r="F27" s="217" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="217" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="179"/>
+      <c r="H27" s="217"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4086,11 +4094,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="180" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="181"/>
+      <c r="F28" s="217"/>
+      <c r="G28" s="200" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="193"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4098,12 +4106,12 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="179"/>
+      <c r="F29" s="217"/>
       <c r="G29" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I29" s="32"/>
     </row>
@@ -4112,9 +4120,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
+      <c r="F30" s="217"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4122,9 +4130,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="218"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4132,9 +4140,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="182"/>
+      <c r="F32" s="217"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4169,7 +4177,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -4184,21 +4192,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B16:C16"/>
@@ -4215,11 +4213,21 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4235,7 +4243,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4254,28 +4262,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="96"/>
-      <c r="B1" s="207" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
+      <c r="B1" s="184" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="208" t="s">
+      <c r="C2" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4284,7 +4292,7 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H3" s="44" t="str">
         <f>記入!B16</f>
@@ -4322,12 +4330,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="209" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
+      <c r="F6" s="186" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4335,7 +4343,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -4348,12 +4356,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="209" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
+      <c r="F8" s="186" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4402,165 +4410,165 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="210" t="s">
+      <c r="B13" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="211"/>
-      <c r="D13" s="212" t="str">
+      <c r="C13" s="188"/>
+      <c r="D13" s="189" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="213"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="214"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="191"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="187" t="s">
+      <c r="B14" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="181"/>
-      <c r="D14" s="188" t="str">
+      <c r="C14" s="193"/>
+      <c r="D14" s="194" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="190"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="196"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="187" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="181"/>
+      <c r="B15" s="192" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="193"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="180" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="181"/>
-      <c r="G15" s="215" t="str">
+      <c r="E15" s="200" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="193"/>
+      <c r="G15" s="197" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="216"/>
-      <c r="I15" s="217"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="187" t="s">
+      <c r="B16" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="181"/>
+      <c r="C16" s="193"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="180" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="181"/>
-      <c r="G16" s="188" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="189"/>
-      <c r="I16" s="190"/>
+      <c r="E16" s="200" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="193"/>
+      <c r="G16" s="194" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="195"/>
+      <c r="I16" s="196"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="191" t="s">
+      <c r="B17" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="180" t="s">
+      <c r="C17" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="180" t="s">
+      <c r="D17" s="193"/>
+      <c r="E17" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="181"/>
+      <c r="F17" s="193"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="180" t="s">
+      <c r="H17" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="194"/>
+      <c r="I17" s="206"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="192"/>
-      <c r="C18" s="205" t="str">
+      <c r="B18" s="204"/>
+      <c r="C18" s="180" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="206"/>
-      <c r="E18" s="180" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="181"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="200" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="193"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="199"/>
-      <c r="I18" s="200"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="212"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="192"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="196"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="208"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="201"/>
-      <c r="I19" s="202"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="214"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="192"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="196"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="208"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="202"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="214"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="192"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="196"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="208"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="201"/>
-      <c r="I21" s="202"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="214"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="192"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="196"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="208"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="202"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="214"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="193"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="198"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="210"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="204"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="216"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
       <c r="C24" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="29"/>
@@ -4573,7 +4581,7 @@
     <row r="25" spans="2:14" ht="21.75" customHeight="1">
       <c r="B25" s="29"/>
       <c r="C25" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="29"/>
@@ -4597,14 +4605,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="179" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="179" t="str">
+      <c r="F27" s="217" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="217" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="179"/>
+      <c r="H27" s="217"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4612,11 +4620,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="180" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="181"/>
+      <c r="F28" s="217"/>
+      <c r="G28" s="200" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="193"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4624,12 +4632,12 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="179"/>
+      <c r="F29" s="217"/>
       <c r="G29" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H29" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I29" s="32"/>
     </row>
@@ -4638,9 +4646,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
+      <c r="F30" s="217"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4648,9 +4656,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="218"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4658,9 +4666,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="182"/>
+      <c r="F32" s="217"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4695,7 +4703,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -4710,26 +4718,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4746,6 +4734,26 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4782,61 +4790,61 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="218" t="s">
+      <c r="C3" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="219"/>
+      <c r="D3" s="230"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="220"/>
-      <c r="D4" s="221"/>
+      <c r="C4" s="231"/>
+      <c r="D4" s="232"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="222" t="str">
+      <c r="C5" s="233" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="223"/>
+      <c r="D5" s="234"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="225"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="236"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="236" t="str">
+      <c r="C7" s="227" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="237"/>
+      <c r="D7" s="228"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="236"/>
-      <c r="D8" s="237"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="228"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="230" t="str">
+      <c r="C9" s="221" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="231"/>
+      <c r="D9" s="222"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
       <c r="B10" s="36"/>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="12" t="str">
         <f>記入!B17</f>
@@ -4846,34 +4854,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="232" t="s">
+      <c r="C11" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="233"/>
+      <c r="D11" s="224"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="234" t="str">
+      <c r="C12" s="225" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="235"/>
+      <c r="D12" s="226"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="226" t="str">
+      <c r="C13" s="237" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="227"/>
+      <c r="D13" s="238"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="228"/>
-      <c r="D14" s="229"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="220"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -4899,16 +4907,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C7:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4942,99 +4950,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5">
-      <c r="B1" s="243" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
+      <c r="B1" s="244" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
     </row>
     <row r="2" spans="2:9" ht="31.5">
-      <c r="B2" s="243" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
+      <c r="B2" s="244" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
     </row>
     <row r="3" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B3" s="244"/>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
+      <c r="B3" s="245"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="245"/>
       <c r="I3" s="47"/>
     </row>
     <row r="4" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B4" s="246" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
-      <c r="E4" s="247" t="str">
+      <c r="B4" s="247" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="247"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="248" t="str">
         <f>記入!B3</f>
         <v>${na.depositenglish}</v>
       </c>
-      <c r="F4" s="247"/>
-      <c r="G4" s="247"/>
-      <c r="H4" s="247"/>
-      <c r="I4" s="247"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="248"/>
     </row>
     <row r="5" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B5" s="245" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="245"/>
-      <c r="D5" s="245"/>
+      <c r="B5" s="246" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="246"/>
+      <c r="D5" s="246"/>
       <c r="E5" s="81" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
       <c r="F5" s="48"/>
-      <c r="G5" s="245" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="245"/>
+      <c r="G5" s="246" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="246"/>
       <c r="I5" s="81" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B6" s="245" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="245"/>
-      <c r="D6" s="245"/>
+      <c r="B6" s="246" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="246"/>
+      <c r="D6" s="246"/>
       <c r="E6" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" s="48"/>
-      <c r="G6" s="245" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="245"/>
+      <c r="G6" s="246" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="246"/>
       <c r="I6" s="82" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" customHeight="1">
-      <c r="B7" s="238" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
+      <c r="B7" s="239" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="239"/>
+      <c r="D7" s="239"/>
       <c r="E7" s="83" t="str">
         <f>記入!B16</f>
         <v>${na.deliveryfinshdate}</v>
@@ -5046,50 +5054,50 @@
     </row>
     <row r="8" spans="2:9" ht="17.25" customHeight="1">
       <c r="B8" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="E8" s="52" t="s">
         <v>64</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>66</v>
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I8" s="50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="21" customHeight="1">
       <c r="B9" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="E9" s="58" t="s">
         <v>70</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>72</v>
       </c>
       <c r="F9" s="59"/>
       <c r="G9" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
@@ -5099,38 +5107,38 @@
       <c r="E10" s="62"/>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
-      <c r="H10" s="239" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="240"/>
+      <c r="H10" s="240" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="241"/>
     </row>
     <row r="11" spans="2:9" ht="62.25" customHeight="1">
       <c r="B11" s="63"/>
       <c r="C11" s="64"/>
-      <c r="D11" s="241" t="str">
+      <c r="D11" s="242" t="str">
         <f>記入!B11</f>
         <v>${na.pjnamechinese}</v>
       </c>
-      <c r="E11" s="242"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="242"/>
-      <c r="H11" s="242"/>
-      <c r="I11" s="242"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="243"/>
+      <c r="H11" s="243"/>
+      <c r="I11" s="243"/>
     </row>
     <row r="12" spans="2:9" ht="28.5" customHeight="1">
       <c r="B12" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" s="66"/>
       <c r="D12" s="67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12" s="48"/>
       <c r="G12" s="69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H12" s="70"/>
       <c r="I12" s="84" t="e">
@@ -5142,14 +5150,14 @@
       <c r="B13" s="48"/>
       <c r="C13" s="66"/>
       <c r="D13" s="68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" s="68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" s="48"/>
       <c r="G13" s="69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="84">
@@ -5200,7 +5208,7 @@
       <c r="B18" s="48"/>
       <c r="C18" s="66"/>
       <c r="D18" s="70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="70"/>
       <c r="F18" s="48"/>
@@ -5215,7 +5223,7 @@
       <c r="E19" s="70"/>
       <c r="F19" s="48"/>
       <c r="G19" s="69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="86" t="str">
@@ -5265,7 +5273,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C24" s="48"/>
       <c r="D24" s="48"/>

--- a/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
@@ -833,7 +833,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>　黄浦路900号30号楼</t>
+    <t>　黄浦路900号30号楼&lt;116085&gt;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1947,57 +1947,126 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2010,27 +2079,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2042,9 +2090,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2078,86 +2123,119 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2165,12 +2243,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2195,21 +2267,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2219,62 +2276,35 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2303,36 +2333,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3100,34 +3100,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="96"/>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="174" t="str">
+      <c r="C3" s="112" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="176"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="114"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3141,203 +3141,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="171" t="str">
+      <c r="C5" s="108"/>
+      <c r="D5" s="109" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="173"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="177" t="str">
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="179"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="118"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="112" t="str">
+      <c r="C7" s="115"/>
+      <c r="D7" s="176" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
       <c r="G7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="114" t="str">
+      <c r="H7" s="178" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="114"/>
-      <c r="J7" s="115"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="179"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="121" t="str">
+      <c r="C8" s="115"/>
+      <c r="D8" s="119" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="168"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="119" t="s">
+      <c r="E8" s="120"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="120"/>
-      <c r="I8" s="121" t="s">
+      <c r="H8" s="123"/>
+      <c r="I8" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="122"/>
+      <c r="J8" s="121"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="155" t="str">
+      <c r="C9" s="125"/>
+      <c r="D9" s="130" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="157"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="160"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="128"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="160"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="160"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="135"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="128"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="160"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="128"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="160"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="135"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="160"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="135"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="128"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="160"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="135"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="128"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="160"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="135"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="128"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="160"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="135"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="163"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3351,91 +3351,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="164" t="str">
+      <c r="C21" s="125"/>
+      <c r="D21" s="139" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="166"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="128"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="144"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="128"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="118"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="144"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="128"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="144"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="128"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="118"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="144"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="130"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="118"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="144"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="132" t="s">
+      <c r="B27" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="133"/>
-      <c r="D27" s="134" t="str">
+      <c r="C27" s="115"/>
+      <c r="D27" s="150" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="137"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="153"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3449,112 +3449,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="138" t="s">
+      <c r="B29" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="139"/>
-      <c r="D29" s="119" t="s">
+      <c r="C29" s="154"/>
+      <c r="D29" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="121" t="str">
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="119" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="122"/>
+      <c r="J29" s="121"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="128"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="119" t="s">
+      <c r="B30" s="126"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="121" t="s">
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="122"/>
+      <c r="J30" s="121"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="141"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="147" t="s">
+      <c r="B31" s="156"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="148"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="119" t="s">
+      <c r="E31" s="163"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="120"/>
-      <c r="I31" s="121" t="str">
+      <c r="H31" s="123"/>
+      <c r="I31" s="119" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="122"/>
+      <c r="J31" s="121"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="141"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="119" t="s">
+      <c r="B32" s="156"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="120"/>
-      <c r="I32" s="154" t="str">
+      <c r="H32" s="123"/>
+      <c r="I32" s="171" t="str">
         <f>記入!B26</f>
         <v xml:space="preserve">Office Scan </v>
       </c>
-      <c r="J32" s="122"/>
+      <c r="J32" s="121"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="142"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="119" t="s">
+      <c r="B33" s="157"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="120"/>
-      <c r="I33" s="121" t="s">
+      <c r="H33" s="123"/>
+      <c r="I33" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="122"/>
+      <c r="J33" s="121"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="123" t="s">
+      <c r="B35" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="124"/>
-      <c r="D35" s="123" t="s">
+      <c r="C35" s="147"/>
+      <c r="D35" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="124"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="147"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3602,44 +3602,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="126" t="s">
+      <c r="E45" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="127"/>
-      <c r="G45" s="126" t="s">
+      <c r="F45" s="125"/>
+      <c r="G45" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="127"/>
+      <c r="H45" s="125"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="128"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="129"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="127"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="130"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="131"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="129"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="106"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="107"/>
+      <c r="E48" s="172"/>
+      <c r="F48" s="173"/>
+      <c r="G48" s="172"/>
+      <c r="H48" s="173"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="108"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="109"/>
+      <c r="E49" s="174"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="174"/>
+      <c r="H49" s="175"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="110"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="111"/>
+      <c r="E50" s="168"/>
+      <c r="F50" s="170"/>
+      <c r="G50" s="168"/>
+      <c r="H50" s="170"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3647,25 +3647,16 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="E45:F47"/>
@@ -3680,16 +3671,25 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3716,7 +3716,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D13" sqref="D13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3735,28 +3735,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="96"/>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3803,12 +3803,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="186" t="s">
+      <c r="F6" s="210" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3829,12 +3829,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="210" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="210"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3884,160 +3884,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="187" t="s">
+      <c r="B13" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="189" t="str">
+      <c r="C13" s="212"/>
+      <c r="D13" s="213" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="191"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="215"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="193"/>
-      <c r="D14" s="194" t="str">
+      <c r="C14" s="182"/>
+      <c r="D14" s="189" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="195"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="196"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="191"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="193"/>
+      <c r="C15" s="182"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="200" t="s">
+      <c r="E15" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="193"/>
-      <c r="G15" s="197" t="str">
+      <c r="F15" s="182"/>
+      <c r="G15" s="216" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="198"/>
-      <c r="I15" s="199"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="218"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="193"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="200" t="s">
+      <c r="E16" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="193"/>
-      <c r="G16" s="194" t="s">
+      <c r="F16" s="182"/>
+      <c r="G16" s="189" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="195"/>
-      <c r="I16" s="196"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="191"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="203" t="s">
+      <c r="B17" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="200" t="s">
+      <c r="C17" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="193"/>
-      <c r="E17" s="200" t="s">
+      <c r="D17" s="182"/>
+      <c r="E17" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="193"/>
+      <c r="F17" s="182"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="200" t="s">
+      <c r="H17" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="206"/>
+      <c r="I17" s="195"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="204"/>
-      <c r="C18" s="180" t="str">
+      <c r="B18" s="193"/>
+      <c r="C18" s="206" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="181"/>
-      <c r="E18" s="200" t="s">
+      <c r="D18" s="207"/>
+      <c r="E18" s="181" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="193"/>
+      <c r="F18" s="182"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="211"/>
-      <c r="I18" s="212"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="201"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="204"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="208"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="197"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="214"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="204"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="208"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="197"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="214"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="204"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="208"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="197"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="214"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="203"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="204"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="208"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="197"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="214"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="203"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="205"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="210"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="205"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4079,14 +4079,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="217" t="s">
+      <c r="F27" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="217" t="str">
+      <c r="G27" s="180" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="217"/>
+      <c r="H27" s="180"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4094,11 +4094,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="200" t="s">
+      <c r="F28" s="180"/>
+      <c r="G28" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="193"/>
+      <c r="H28" s="182"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4106,7 +4106,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="217"/>
+      <c r="F29" s="180"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4120,9 +4120,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="217"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4130,9 +4130,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="218"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4140,9 +4140,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="217"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4192,11 +4192,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B16:C16"/>
@@ -4213,21 +4223,11 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4243,7 +4243,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4262,28 +4262,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="96"/>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="208" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4330,12 +4330,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="186" t="s">
+      <c r="F6" s="210" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4356,12 +4356,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="210" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="210"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4410,160 +4410,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="187" t="s">
+      <c r="B13" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="189" t="str">
+      <c r="C13" s="212"/>
+      <c r="D13" s="213" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="191"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="215"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="193"/>
-      <c r="D14" s="194" t="str">
+      <c r="C14" s="182"/>
+      <c r="D14" s="189" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="195"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="196"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="191"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="193"/>
+      <c r="C15" s="182"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="200" t="s">
+      <c r="E15" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="193"/>
-      <c r="G15" s="197" t="str">
+      <c r="F15" s="182"/>
+      <c r="G15" s="216" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="198"/>
-      <c r="I15" s="199"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="218"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="193"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="200" t="s">
+      <c r="E16" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="193"/>
-      <c r="G16" s="194" t="s">
+      <c r="F16" s="182"/>
+      <c r="G16" s="189" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="195"/>
-      <c r="I16" s="196"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="191"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="203" t="s">
+      <c r="B17" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="200" t="s">
+      <c r="C17" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="193"/>
-      <c r="E17" s="200" t="s">
+      <c r="D17" s="182"/>
+      <c r="E17" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="193"/>
+      <c r="F17" s="182"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="200" t="s">
+      <c r="H17" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="206"/>
+      <c r="I17" s="195"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="204"/>
-      <c r="C18" s="180" t="str">
+      <c r="B18" s="193"/>
+      <c r="C18" s="206" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="181"/>
-      <c r="E18" s="200" t="s">
+      <c r="D18" s="207"/>
+      <c r="E18" s="181" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="193"/>
+      <c r="F18" s="182"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="211"/>
-      <c r="I18" s="212"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="201"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="204"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="208"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="197"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="214"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="204"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="208"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="197"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="214"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="204"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="208"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="197"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="214"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="203"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="204"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="208"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="197"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="214"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="203"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="205"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="210"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="205"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4605,14 +4605,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="217" t="s">
+      <c r="F27" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="217" t="str">
+      <c r="G27" s="180" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="217"/>
+      <c r="H27" s="180"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4620,11 +4620,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="200" t="s">
+      <c r="F28" s="180"/>
+      <c r="G28" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="193"/>
+      <c r="H28" s="182"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4632,7 +4632,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="217"/>
+      <c r="F29" s="180"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4646,9 +4646,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="217"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4656,9 +4656,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="218"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4666,9 +4666,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="217"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4718,6 +4718,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4734,26 +4754,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4790,55 +4790,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="229" t="s">
+      <c r="C3" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="230"/>
+      <c r="D3" s="220"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="231"/>
-      <c r="D4" s="232"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="222"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="233" t="str">
+      <c r="C5" s="223" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="234"/>
+      <c r="D5" s="224"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="236"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="226"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="227" t="str">
+      <c r="C7" s="237" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="228"/>
+      <c r="D7" s="238"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="227"/>
-      <c r="D8" s="228"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="238"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="221" t="str">
+      <c r="C9" s="231" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="222"/>
+      <c r="D9" s="232"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -4854,34 +4854,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="223" t="s">
+      <c r="C11" s="233" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="224"/>
+      <c r="D11" s="234"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="225" t="str">
+      <c r="C12" s="235" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="226"/>
+      <c r="D12" s="236"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="237" t="str">
+      <c r="C13" s="227" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="238"/>
+      <c r="D13" s="228"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="220"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="230"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -4907,16 +4907,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:D8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'納品明細書兼物品受領書（正）'!$A$1:$J$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'納品明細書兼物品受領書（副）'!$A$1:$J$36</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -31,7 +36,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +86,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +111,7 @@
     <author>DONG</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -942,7 +947,6 @@
     <font>
       <sz val="10"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1669,7 +1673,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1947,116 +1951,38 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2064,8 +1990,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2079,6 +2014,27 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2090,6 +2046,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2123,188 +2082,203 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2334,6 +2308,36 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2364,12 +2368,18 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 5" xfId="2"/>
     <cellStyle name="標準 6" xfId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2377,12 +2387,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2424,7 +2437,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2459,7 +2472,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2671,8 +2684,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3100,34 +3113,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="96"/>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="112" t="str">
+      <c r="C3" s="174" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="114"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="176"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3141,203 +3154,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="109" t="str">
+      <c r="C5" s="170"/>
+      <c r="D5" s="171" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="173"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116" t="str">
+      <c r="C6" s="133"/>
+      <c r="D6" s="177" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="118"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="179"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="176" t="str">
+      <c r="C7" s="133"/>
+      <c r="D7" s="112" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="178" t="str">
+      <c r="H7" s="114" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="178"/>
-      <c r="J7" s="179"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="115"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="119" t="str">
+      <c r="C8" s="133"/>
+      <c r="D8" s="121" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="122" t="s">
+      <c r="E8" s="168"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="119" t="s">
+      <c r="H8" s="120"/>
+      <c r="I8" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="121"/>
+      <c r="J8" s="122"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="130" t="str">
+      <c r="C9" s="127"/>
+      <c r="D9" s="155" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="157"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="126"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="160"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="126"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="135"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="126"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="135"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="160"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="126"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="135"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="126"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="135"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="126"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="135"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="160"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="126"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="135"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="160"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="126"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="135"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="160"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="126"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="135"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="160"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="138"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="163"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3351,91 +3364,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="139" t="str">
+      <c r="C21" s="127"/>
+      <c r="D21" s="164" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="166"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="126"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="144"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="118"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="126"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="144"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="118"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="126"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="144"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="118"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="126"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="144"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="118"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="128"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="144"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="117"/>
+      <c r="J26" s="118"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="150" t="str">
+      <c r="C27" s="133"/>
+      <c r="D27" s="134" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="153"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="137"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3449,112 +3462,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="124" t="s">
+      <c r="B29" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="154"/>
-      <c r="D29" s="122" t="s">
+      <c r="C29" s="139"/>
+      <c r="D29" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="119" t="str">
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="121" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="121"/>
+      <c r="J29" s="122"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="126"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="122" t="s">
+      <c r="B30" s="128"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="119" t="s">
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="121"/>
+      <c r="J30" s="122"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="156"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="162" t="s">
+      <c r="B31" s="141"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="163"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="122" t="s">
+      <c r="E31" s="148"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="123"/>
-      <c r="I31" s="119" t="str">
+      <c r="H31" s="120"/>
+      <c r="I31" s="121" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="121"/>
+      <c r="J31" s="122"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="156"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="122" t="s">
+      <c r="B32" s="141"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="123"/>
-      <c r="I32" s="171" t="str">
+      <c r="H32" s="120"/>
+      <c r="I32" s="154" t="str">
         <f>記入!B26</f>
         <v xml:space="preserve">Office Scan </v>
       </c>
-      <c r="J32" s="121"/>
+      <c r="J32" s="122"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="157"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="122" t="s">
+      <c r="B33" s="142"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="123"/>
-      <c r="I33" s="119" t="s">
+      <c r="H33" s="120"/>
+      <c r="I33" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="121"/>
+      <c r="J33" s="122"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="143"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="146" t="s">
+      <c r="B35" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="147"/>
-      <c r="D35" s="146" t="s">
+      <c r="C35" s="124"/>
+      <c r="D35" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="147"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="124"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3602,44 +3615,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="149" t="s">
+      <c r="E45" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="125"/>
-      <c r="G45" s="149" t="s">
+      <c r="F45" s="127"/>
+      <c r="G45" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="125"/>
+      <c r="H45" s="127"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="126"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="127"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="129"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="128"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="129"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="131"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="172"/>
-      <c r="F48" s="173"/>
-      <c r="G48" s="172"/>
-      <c r="H48" s="173"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="107"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="107"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="174"/>
-      <c r="F49" s="175"/>
-      <c r="G49" s="174"/>
-      <c r="H49" s="175"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="109"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="168"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="170"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="111"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3647,16 +3660,25 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="E45:F47"/>
@@ -3671,25 +3693,16 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3715,8 +3728,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:I13"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3735,28 +3748,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="96"/>
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3784,16 +3797,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="18" t="str">
+      <c r="B5" s="249" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="C5" s="250"/>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="250"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -3803,12 +3816,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="210" t="s">
+      <c r="F6" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3829,12 +3842,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="210" t="s">
+      <c r="F8" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="210"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="210"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3884,160 +3897,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="211" t="s">
+      <c r="B13" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="212"/>
-      <c r="D13" s="213" t="str">
+      <c r="C13" s="188"/>
+      <c r="D13" s="189" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="215"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="191"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="189" t="str">
+      <c r="C14" s="193"/>
+      <c r="D14" s="194" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="191"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="196"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="182"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="181" t="s">
+      <c r="E15" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="182"/>
-      <c r="G15" s="216" t="str">
+      <c r="F15" s="193"/>
+      <c r="G15" s="197" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="217"/>
-      <c r="I15" s="218"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="188" t="s">
+      <c r="B16" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="182"/>
+      <c r="C16" s="193"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="181" t="s">
+      <c r="E16" s="200" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="182"/>
-      <c r="G16" s="189" t="s">
+      <c r="F16" s="193"/>
+      <c r="G16" s="194" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="190"/>
-      <c r="I16" s="191"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="196"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="181" t="s">
+      <c r="C17" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="181" t="s">
+      <c r="D17" s="193"/>
+      <c r="E17" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="182"/>
+      <c r="F17" s="193"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="181" t="s">
+      <c r="H17" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="195"/>
+      <c r="I17" s="206"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="193"/>
-      <c r="C18" s="206" t="str">
+      <c r="B18" s="204"/>
+      <c r="C18" s="180" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="207"/>
-      <c r="E18" s="181" t="s">
+      <c r="D18" s="181"/>
+      <c r="E18" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="182"/>
+      <c r="F18" s="193"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="200"/>
-      <c r="I18" s="201"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="212"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="193"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="197"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="208"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="203"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="214"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="193"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="197"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="208"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="203"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="214"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="193"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="197"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="208"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="202"/>
-      <c r="I21" s="203"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="214"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="193"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="196"/>
-      <c r="F22" s="197"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="208"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="203"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="214"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="194"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="199"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="210"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="205"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="216"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4079,14 +4092,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="180" t="s">
+      <c r="F27" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="180" t="str">
+      <c r="G27" s="217" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="180"/>
+      <c r="H27" s="217"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4094,11 +4107,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="181" t="s">
+      <c r="F28" s="217"/>
+      <c r="G28" s="200" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="182"/>
+      <c r="H28" s="193"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4106,7 +4119,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="180"/>
+      <c r="F29" s="217"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4120,9 +4133,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
+      <c r="F30" s="217"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4130,9 +4143,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="218"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4140,9 +4153,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
+      <c r="F32" s="217"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4191,22 +4204,12 @@
       <c r="B39" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
+  <mergeCells count="37">
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B16:C16"/>
@@ -4223,11 +4226,22 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4262,28 +4276,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="96"/>
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="184" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4330,12 +4344,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="210" t="s">
+      <c r="F6" s="186" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4356,12 +4370,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="210" t="s">
+      <c r="F8" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="210"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="210"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4410,160 +4424,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="211" t="s">
+      <c r="B13" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="212"/>
-      <c r="D13" s="213" t="str">
+      <c r="C13" s="188"/>
+      <c r="D13" s="189" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="215"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="191"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="189" t="str">
+      <c r="C14" s="193"/>
+      <c r="D14" s="194" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="191"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="196"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="182"/>
+      <c r="C15" s="193"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="181" t="s">
+      <c r="E15" s="200" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="182"/>
-      <c r="G15" s="216" t="str">
+      <c r="F15" s="193"/>
+      <c r="G15" s="197" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="217"/>
-      <c r="I15" s="218"/>
+      <c r="H15" s="198"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="188" t="s">
+      <c r="B16" s="192" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="182"/>
+      <c r="C16" s="193"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="181" t="s">
+      <c r="E16" s="200" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="182"/>
-      <c r="G16" s="189" t="s">
+      <c r="F16" s="193"/>
+      <c r="G16" s="194" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="190"/>
-      <c r="I16" s="191"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="196"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="181" t="s">
+      <c r="C17" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="181" t="s">
+      <c r="D17" s="193"/>
+      <c r="E17" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="182"/>
+      <c r="F17" s="193"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="181" t="s">
+      <c r="H17" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="195"/>
+      <c r="I17" s="206"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="193"/>
-      <c r="C18" s="206" t="str">
+      <c r="B18" s="204"/>
+      <c r="C18" s="180" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="207"/>
-      <c r="E18" s="181" t="s">
+      <c r="D18" s="181"/>
+      <c r="E18" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="182"/>
+      <c r="F18" s="193"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="200"/>
-      <c r="I18" s="201"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="212"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="193"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="197"/>
+      <c r="B19" s="204"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="208"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="203"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="214"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="193"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="197"/>
+      <c r="B20" s="204"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="207"/>
+      <c r="F20" s="208"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="203"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="214"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="193"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="197"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="208"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="202"/>
-      <c r="I21" s="203"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="214"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="193"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="196"/>
-      <c r="F22" s="197"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="182"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="208"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="203"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="214"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="194"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="199"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="210"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="205"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="216"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4605,14 +4619,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="180" t="s">
+      <c r="F27" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="180" t="str">
+      <c r="G27" s="217" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="180"/>
+      <c r="H27" s="217"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4620,11 +4634,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="181" t="s">
+      <c r="F28" s="217"/>
+      <c r="G28" s="200" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="182"/>
+      <c r="H28" s="193"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4632,7 +4646,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="180"/>
+      <c r="F29" s="217"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4646,9 +4660,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
+      <c r="F30" s="217"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4656,9 +4670,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="218"/>
+      <c r="H31" s="218"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4666,9 +4680,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
+      <c r="F32" s="217"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4718,26 +4732,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4754,6 +4748,26 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4790,55 +4804,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="219" t="s">
+      <c r="C3" s="229" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="220"/>
+      <c r="D3" s="230"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="222"/>
+      <c r="C4" s="231"/>
+      <c r="D4" s="232"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="223" t="str">
+      <c r="C5" s="233" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="224"/>
+      <c r="D5" s="234"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="225"/>
-      <c r="D6" s="226"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="236"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="237" t="str">
+      <c r="C7" s="227" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="238"/>
+      <c r="D7" s="228"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="238"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="228"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="231" t="str">
+      <c r="C9" s="221" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="232"/>
+      <c r="D9" s="222"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -4854,34 +4868,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="233" t="s">
+      <c r="C11" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="234"/>
+      <c r="D11" s="224"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="235" t="str">
+      <c r="C12" s="225" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="236"/>
+      <c r="D12" s="226"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="227" t="str">
+      <c r="C13" s="237" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="228"/>
+      <c r="D13" s="238"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="229"/>
-      <c r="D14" s="230"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="220"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -4907,16 +4921,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C7:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,8 +23,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">CDラベル!$A$1:$F$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">INVOICE!$A$1:$J$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">出荷判定書!$A$1:$K$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'納品明細書兼物品受領書（副）'!$A$1:$J$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'納品明細書兼物品受領書（正）'!$A$1:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'納品明細書兼物品受領書（副）'!$A$1:$J$36</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="145">
   <si>
     <t>納　　入　　物　　品</t>
   </si>
@@ -443,6 +443,7 @@
         <u/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> PANASONIC SOFTWARE DEVELOPMENT CENTER DALIAN CO.,LTD</t>
@@ -808,10 +809,6 @@
   </si>
   <si>
     <t>${na.deployment}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${na.currencyformat}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -947,6 +944,8 @@
     <font>
       <sz val="10"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -995,22 +994,26 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1022,7 +1025,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1034,7 +1037,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1951,57 +1954,126 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2014,27 +2086,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2046,9 +2097,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2082,86 +2130,119 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2169,12 +2250,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2199,21 +2274,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2223,62 +2283,41 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2308,36 +2347,6 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2367,12 +2376,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2859,7 +2862,7 @@
         <v>107</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="80" t="s">
         <v>94</v>
@@ -2872,7 +2875,7 @@
         <v>108</v>
       </c>
       <c r="B15" s="98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="80" t="s">
         <v>94</v>
@@ -2923,9 +2926,7 @@
       <c r="A19" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="89" t="s">
-        <v>138</v>
-      </c>
+      <c r="B19" s="89"/>
       <c r="C19" s="79" t="s">
         <v>93</v>
       </c>
@@ -3012,7 +3013,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" s="102"/>
       <c r="E26" s="103"/>
@@ -3022,60 +3023,60 @@
         <v>110</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" s="104"/>
       <c r="E27" s="105"/>
     </row>
-    <row r="28" spans="1:5" ht="13.5">
+    <row r="28" spans="1:5" ht="15">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="13.5">
+    <row r="29" spans="1:5" ht="15">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="13.5">
+    <row r="30" spans="1:5" ht="15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="13.5">
+    <row r="31" spans="1:5" ht="15">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="13.5">
+    <row r="32" spans="1:5" ht="15">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" ht="13.5">
+    <row r="33" spans="1:1" ht="15">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" ht="13.5">
+    <row r="34" spans="1:1" ht="15">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" ht="13.5">
+    <row r="35" spans="1:1" ht="15">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" ht="13.5">
+    <row r="36" spans="1:1" ht="15">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" ht="13.5">
+    <row r="37" spans="1:1" ht="15">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" ht="13.5">
+    <row r="38" spans="1:1" ht="15">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" ht="13.5">
+    <row r="39" spans="1:1" ht="15">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" ht="13.5">
+    <row r="40" spans="1:1" ht="15">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" ht="13.5">
+    <row r="41" spans="1:1" ht="15">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" ht="13.5">
+    <row r="42" spans="1:1" ht="15">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1" ht="13.5">
+    <row r="43" spans="1:1" ht="15">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1" ht="13.5">
+    <row r="44" spans="1:1" ht="15">
       <c r="A44" s="2"/>
     </row>
   </sheetData>
@@ -3097,7 +3098,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32:J32"/>
+      <selection activeCell="D8" sqref="D8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3113,34 +3114,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="96"/>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="174" t="str">
+      <c r="C3" s="112" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="176"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="114"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3154,203 +3155,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="171" t="str">
+      <c r="C5" s="108"/>
+      <c r="D5" s="109" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="172"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="172"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="173"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="111"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="177" t="str">
+      <c r="C6" s="115"/>
+      <c r="D6" s="116" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="179"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="118"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="112" t="str">
+      <c r="C7" s="115"/>
+      <c r="D7" s="176" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
       <c r="G7" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="114" t="str">
+      <c r="H7" s="178" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="114"/>
-      <c r="J7" s="115"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="179"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="121" t="str">
+      <c r="C8" s="115"/>
+      <c r="D8" s="119" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="168"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="119" t="s">
+      <c r="E8" s="120"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="120"/>
-      <c r="I8" s="121" t="s">
+      <c r="H8" s="123"/>
+      <c r="I8" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="122"/>
+      <c r="J8" s="121"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="138" t="s">
+      <c r="B9" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="155" t="str">
+      <c r="C9" s="125"/>
+      <c r="D9" s="130" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="157"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="160"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="128"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="160"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="160"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="135"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="128"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="160"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="128"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="160"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="135"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="160"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="135"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="128"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="160"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="135"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="128"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="160"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="135"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="128"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="160"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="135"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="163"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="138"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3364,91 +3365,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="164" t="str">
+      <c r="C21" s="125"/>
+      <c r="D21" s="139" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="166"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="128"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="118"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="144"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="128"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="118"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="144"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="128"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="144"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="128"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="118"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="144"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="130"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="118"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="144"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="132" t="s">
+      <c r="B27" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="133"/>
-      <c r="D27" s="134" t="str">
+      <c r="C27" s="115"/>
+      <c r="D27" s="150" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="137"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="153"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3462,112 +3463,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="138" t="s">
+      <c r="B29" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="139"/>
-      <c r="D29" s="119" t="s">
+      <c r="C29" s="154"/>
+      <c r="D29" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="121" t="str">
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="119" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="122"/>
+      <c r="J29" s="121"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="128"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="119" t="s">
+      <c r="B30" s="126"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="121" t="s">
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="122"/>
+      <c r="J30" s="121"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="141"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="147" t="s">
+      <c r="B31" s="156"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="148"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="119" t="s">
+      <c r="E31" s="163"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="120"/>
-      <c r="I31" s="121" t="str">
+      <c r="H31" s="123"/>
+      <c r="I31" s="119" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="122"/>
+      <c r="J31" s="121"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="141"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="119" t="s">
+      <c r="B32" s="156"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="120"/>
-      <c r="I32" s="154" t="str">
+      <c r="H32" s="123"/>
+      <c r="I32" s="171" t="str">
         <f>記入!B26</f>
         <v xml:space="preserve">Office Scan </v>
       </c>
-      <c r="J32" s="122"/>
+      <c r="J32" s="121"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="142"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="119" t="s">
+      <c r="B33" s="157"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="120"/>
-      <c r="I33" s="121" t="s">
+      <c r="H33" s="123"/>
+      <c r="I33" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="122"/>
+      <c r="J33" s="121"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="123" t="s">
+      <c r="B35" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="124"/>
-      <c r="D35" s="123" t="s">
+      <c r="C35" s="147"/>
+      <c r="D35" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="124"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="147"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3615,44 +3616,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="126" t="s">
+      <c r="E45" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="127"/>
-      <c r="G45" s="126" t="s">
+      <c r="F45" s="125"/>
+      <c r="G45" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="127"/>
+      <c r="H45" s="125"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="128"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="129"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="127"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="130"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="131"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="129"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="106"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="107"/>
+      <c r="E48" s="172"/>
+      <c r="F48" s="173"/>
+      <c r="G48" s="172"/>
+      <c r="H48" s="173"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="108"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="109"/>
+      <c r="E49" s="174"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="174"/>
+      <c r="H49" s="175"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="110"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="111"/>
+      <c r="E50" s="168"/>
+      <c r="F50" s="170"/>
+      <c r="G50" s="168"/>
+      <c r="H50" s="170"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3660,25 +3661,16 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="E45:F47"/>
@@ -3693,16 +3685,25 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3748,28 +3749,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="96"/>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3797,16 +3798,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="249" t="str">
+      <c r="B5" s="219" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="250"/>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="250"/>
-      <c r="H5" s="250"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -3816,12 +3817,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="186" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
+      <c r="F6" s="210" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3829,7 +3830,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -3842,12 +3843,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="210" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="210"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3897,160 +3898,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="187" t="s">
+      <c r="B13" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="189" t="str">
+      <c r="C13" s="212"/>
+      <c r="D13" s="213" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="191"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="215"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="193"/>
-      <c r="D14" s="194" t="str">
+      <c r="C14" s="182"/>
+      <c r="D14" s="189" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="195"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="196"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="191"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="193"/>
+      <c r="C15" s="182"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="200" t="s">
+      <c r="E15" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="193"/>
-      <c r="G15" s="197" t="str">
+      <c r="F15" s="182"/>
+      <c r="G15" s="216" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="198"/>
-      <c r="I15" s="199"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="218"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="193"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="200" t="s">
+      <c r="E16" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="193"/>
-      <c r="G16" s="194" t="s">
+      <c r="F16" s="182"/>
+      <c r="G16" s="189" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="195"/>
-      <c r="I16" s="196"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="191"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="203" t="s">
+      <c r="B17" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="200" t="s">
+      <c r="C17" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="193"/>
-      <c r="E17" s="200" t="s">
+      <c r="D17" s="182"/>
+      <c r="E17" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="193"/>
+      <c r="F17" s="182"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="200" t="s">
+      <c r="H17" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="206"/>
+      <c r="I17" s="195"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="204"/>
-      <c r="C18" s="180" t="str">
+      <c r="B18" s="193"/>
+      <c r="C18" s="206" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="181"/>
-      <c r="E18" s="200" t="s">
+      <c r="D18" s="207"/>
+      <c r="E18" s="181" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="193"/>
+      <c r="F18" s="182"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="211"/>
-      <c r="I18" s="212"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="201"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="204"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="208"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="197"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="214"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="204"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="208"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="197"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="214"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="204"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="208"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="197"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="214"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="203"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="204"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="208"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="197"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="214"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="203"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="205"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="210"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="205"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4092,14 +4093,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="217" t="s">
+      <c r="F27" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="217" t="str">
+      <c r="G27" s="180" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="217"/>
+      <c r="H27" s="180"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4107,11 +4108,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="200" t="s">
+      <c r="F28" s="180"/>
+      <c r="G28" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="193"/>
+      <c r="H28" s="182"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4119,7 +4120,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="217"/>
+      <c r="F29" s="180"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4133,9 +4134,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="217"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4143,9 +4144,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="218"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4153,9 +4154,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="217"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4188,7 +4189,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" ht="14.25">
       <c r="B36" s="34" t="s">
         <v>45</v>
       </c>
@@ -4200,16 +4201,27 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" ht="14.25">
       <c r="B39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B16:C16"/>
@@ -4226,22 +4238,11 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4257,7 +4258,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B5" sqref="B5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4276,28 +4277,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="96"/>
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="208" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
+      <c r="F1" s="208"/>
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="209"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4325,16 +4326,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="18" t="str">
+      <c r="B5" s="219" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -4344,12 +4345,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="186" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
+      <c r="F6" s="210" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="210"/>
+      <c r="H6" s="210"/>
+      <c r="I6" s="210"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4357,7 +4358,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -4370,12 +4371,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="186" t="s">
+      <c r="F8" s="210" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="210"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4424,160 +4425,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="187" t="s">
+      <c r="B13" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="189" t="str">
+      <c r="C13" s="212"/>
+      <c r="D13" s="213" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="191"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="215"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="193"/>
-      <c r="D14" s="194" t="str">
+      <c r="C14" s="182"/>
+      <c r="D14" s="189" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="195"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="196"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="191"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="193"/>
+      <c r="C15" s="182"/>
       <c r="D15" s="42" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="200" t="s">
+      <c r="E15" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="193"/>
-      <c r="G15" s="197" t="str">
+      <c r="F15" s="182"/>
+      <c r="G15" s="216" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="198"/>
-      <c r="I15" s="199"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="218"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="192" t="s">
+      <c r="B16" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="193"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="200" t="s">
+      <c r="E16" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="193"/>
-      <c r="G16" s="194" t="s">
+      <c r="F16" s="182"/>
+      <c r="G16" s="189" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="195"/>
-      <c r="I16" s="196"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="191"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="203" t="s">
+      <c r="B17" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="200" t="s">
+      <c r="C17" s="181" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="193"/>
-      <c r="E17" s="200" t="s">
+      <c r="D17" s="182"/>
+      <c r="E17" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="193"/>
+      <c r="F17" s="182"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="200" t="s">
+      <c r="H17" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="206"/>
+      <c r="I17" s="195"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="204"/>
-      <c r="C18" s="180" t="str">
+      <c r="B18" s="193"/>
+      <c r="C18" s="206" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="181"/>
-      <c r="E18" s="200" t="s">
+      <c r="D18" s="207"/>
+      <c r="E18" s="181" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="193"/>
+      <c r="F18" s="182"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="211"/>
-      <c r="I18" s="212"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="201"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="204"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="208"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="197"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="214"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="204"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="208"/>
+      <c r="B20" s="193"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="197"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="214"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="204"/>
-      <c r="C21" s="182"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="208"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="197"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="214"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="203"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="204"/>
-      <c r="C22" s="182"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="208"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="197"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="214"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="203"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="205"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="202"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="210"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
+      <c r="H23" s="204"/>
+      <c r="I23" s="205"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4619,14 +4620,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="217" t="s">
+      <c r="F27" s="180" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="217" t="str">
+      <c r="G27" s="180" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="217"/>
+      <c r="H27" s="180"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4634,11 +4635,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="217"/>
-      <c r="G28" s="200" t="s">
+      <c r="F28" s="180"/>
+      <c r="G28" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="193"/>
+      <c r="H28" s="182"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4646,7 +4647,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="217"/>
+      <c r="F29" s="180"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4660,9 +4661,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="217"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4670,9 +4671,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="218"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4680,9 +4681,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="217"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4715,7 +4716,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" ht="14.25">
       <c r="B36" s="34" t="s">
         <v>49</v>
       </c>
@@ -4727,11 +4728,32 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" ht="14.25">
       <c r="B39" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4748,26 +4770,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4804,55 +4806,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="229" t="s">
+      <c r="C3" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="230"/>
+      <c r="D3" s="222"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="231"/>
-      <c r="D4" s="232"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="224"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="233" t="str">
+      <c r="C5" s="225" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="234"/>
+      <c r="D5" s="226"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="236"/>
+      <c r="C6" s="227"/>
+      <c r="D6" s="228"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="227" t="str">
+      <c r="C7" s="239" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="228"/>
+      <c r="D7" s="240"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="227"/>
-      <c r="D8" s="228"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="221" t="str">
+      <c r="C9" s="233" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="222"/>
+      <c r="D9" s="234"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -4868,34 +4870,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="223" t="s">
+      <c r="C11" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="224"/>
+      <c r="D11" s="236"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="225" t="str">
+      <c r="C12" s="237" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="226"/>
+      <c r="D12" s="238"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="237" t="str">
+      <c r="C13" s="229" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="238"/>
+      <c r="D13" s="230"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="220"/>
+      <c r="C14" s="231"/>
+      <c r="D14" s="232"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -4921,16 +4923,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:D8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4964,99 +4966,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5">
-      <c r="B1" s="244" t="s">
+      <c r="B1" s="246" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
     </row>
     <row r="2" spans="2:9" ht="31.5">
-      <c r="B2" s="244" t="s">
+      <c r="B2" s="246" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
     </row>
     <row r="3" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
+      <c r="B3" s="247"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
       <c r="I3" s="47"/>
     </row>
     <row r="4" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="249" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="248" t="str">
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="250" t="str">
         <f>記入!B3</f>
         <v>${na.depositenglish}</v>
       </c>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
-      <c r="H4" s="248"/>
-      <c r="I4" s="248"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="250"/>
     </row>
     <row r="5" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B5" s="246" t="s">
+      <c r="B5" s="248" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
       <c r="E5" s="81" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
       <c r="F5" s="48"/>
-      <c r="G5" s="246" t="s">
+      <c r="G5" s="248" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="246"/>
+      <c r="H5" s="248"/>
       <c r="I5" s="81" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B6" s="246" t="s">
+      <c r="B6" s="248" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
       <c r="E6" s="49" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="48"/>
-      <c r="G6" s="246" t="s">
+      <c r="G6" s="248" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="246"/>
+      <c r="H6" s="248"/>
       <c r="I6" s="82" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" customHeight="1">
-      <c r="B7" s="239" t="s">
+      <c r="B7" s="241" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="241"/>
       <c r="E7" s="83" t="str">
         <f>記入!B16</f>
         <v>${na.deliveryfinshdate}</v>
@@ -5121,23 +5123,23 @@
       <c r="E10" s="62"/>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
-      <c r="H10" s="240" t="s">
+      <c r="H10" s="242" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="241"/>
+      <c r="I10" s="243"/>
     </row>
     <row r="11" spans="2:9" ht="62.25" customHeight="1">
       <c r="B11" s="63"/>
       <c r="C11" s="64"/>
-      <c r="D11" s="242" t="str">
+      <c r="D11" s="244" t="str">
         <f>記入!B11</f>
         <v>${na.pjnamechinese}</v>
       </c>
-      <c r="E11" s="243"/>
-      <c r="F11" s="243"/>
-      <c r="G11" s="243"/>
-      <c r="H11" s="243"/>
-      <c r="I11" s="243"/>
+      <c r="E11" s="245"/>
+      <c r="F11" s="245"/>
+      <c r="G11" s="245"/>
+      <c r="H11" s="245"/>
+      <c r="I11" s="245"/>
     </row>
     <row r="12" spans="2:9" ht="28.5" customHeight="1">
       <c r="B12" s="65" t="s">

--- a/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -768,74 +768,74 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>検収完了日</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${na.claimamount}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>到达  TO</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${na.toto}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>出荷判定実施者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${na.loadingjudge}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>該非判定書番号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${na.depositjapanese}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${na.deployment}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>パナソニックソフトウェア開発センター大連（有）（PSDCD）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office Scan </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+    <phoneticPr fontId="30"/>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
+    <phoneticPr fontId="30"/>
+  </si>
+  <si>
+    <t>　中国遼寧省大連市高新技術産業園区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>　中国遼寧省大連市高新技術産業園区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>　黄浦路900号30号楼&lt;116085&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>${na.deliverydate}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>検収完了日</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>${na.completiondate}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${na.claimamount}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>到达  TO</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${na.toto}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>出荷判定実施者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${na.loadingjudge}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>該非判定書番号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${na.depositjapanese}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${na.deployment}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>パナソニックソフトウェア開発センター大連（有）（PSDCD）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office Scan </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${statime[0]}</t>
-    <phoneticPr fontId="30"/>
-  </si>
-  <si>
-    <t>${statime[1]}</t>
-    <phoneticPr fontId="30"/>
-  </si>
-  <si>
-    <t>　中国遼寧省大連市高新技術産業園区</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>　中国遼寧省大連市高新技術産業園区</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>　黄浦路900号30号楼&lt;116085&gt;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -843,10 +843,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="179" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1769,13 +1770,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1868,9 +1863,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1933,6 +1925,12 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2085,18 +2083,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2274,13 +2260,13 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2377,12 +2363,27 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="18" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 5" xfId="2"/>
     <cellStyle name="標準 6" xfId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2398,7 +2399,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2687,8 +2688,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2700,383 +2701,383 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="D1" s="100" t="s">
+      <c r="B1" s="98"/>
+      <c r="D1" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="101"/>
+      <c r="E1" s="100"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="80" t="s">
+      <c r="B2" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
-    </row>
-    <row r="4" spans="1:5" s="72" customFormat="1">
-      <c r="A4" s="93" t="s">
+      <c r="D3" s="101"/>
+      <c r="E3" s="102"/>
+    </row>
+    <row r="4" spans="1:5" s="70" customFormat="1">
+      <c r="A4" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="79" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="103"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="102"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
-    </row>
-    <row r="6" spans="1:5" s="72" customFormat="1">
-      <c r="A6" s="95" t="s">
+      <c r="D5" s="101"/>
+      <c r="E5" s="102"/>
+    </row>
+    <row r="6" spans="1:5" s="70" customFormat="1">
+      <c r="A6" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="79" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="103"/>
-    </row>
-    <row r="7" spans="1:5" s="72" customFormat="1">
-      <c r="A7" s="95" t="s">
+      <c r="D6" s="101"/>
+      <c r="E6" s="102"/>
+    </row>
+    <row r="7" spans="1:5" s="70" customFormat="1">
+      <c r="A7" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="79" t="s">
+      <c r="B7" s="73"/>
+      <c r="C7" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="103"/>
-    </row>
-    <row r="8" spans="1:5" s="72" customFormat="1">
-      <c r="A8" s="93" t="s">
+      <c r="D7" s="101"/>
+      <c r="E7" s="102"/>
+    </row>
+    <row r="8" spans="1:5" s="70" customFormat="1">
+      <c r="A8" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="79" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="80" t="s">
+      <c r="B9" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="103"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="102"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="102"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="102"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="98" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="80" t="s">
+      <c r="B14" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="80" t="s">
+      <c r="B15" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="246" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="102"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="246" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="101"/>
+      <c r="E17" s="102"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="B18" s="246" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="103"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="93" t="s">
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="86"/>
+      <c r="C19" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="C20" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="101"/>
+      <c r="E20" s="102"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="85"/>
+      <c r="C21" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="85"/>
+      <c r="C22" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="B23" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="103"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="80" t="s">
+      <c r="D23" s="101"/>
+      <c r="E23" s="102"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="91" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="93" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="103"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="78" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="103"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="94" t="s">
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="102"/>
-      <c r="E24" s="103"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="73" t="str">
+      <c r="B25" s="71" t="str">
         <f>"GF-"&amp;B12</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103"/>
+      <c r="B26" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
     </row>
     <row r="27" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="105"/>
-    </row>
-    <row r="28" spans="1:5" ht="15">
+      <c r="B27" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="103"/>
+      <c r="E27" s="104"/>
+    </row>
+    <row r="28" spans="1:5" ht="13.5">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15">
+    <row r="29" spans="1:5" ht="13.5">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15">
+    <row r="30" spans="1:5" ht="13.5">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15">
+    <row r="31" spans="1:5" ht="13.5">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15">
+    <row r="32" spans="1:5" ht="13.5">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" ht="15">
+    <row r="33" spans="1:1" ht="13.5">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" ht="15">
+    <row r="34" spans="1:1" ht="13.5">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" ht="15">
+    <row r="35" spans="1:1" ht="13.5">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" ht="15">
+    <row r="36" spans="1:1" ht="13.5">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" ht="15">
+    <row r="37" spans="1:1" ht="13.5">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" ht="15">
+    <row r="38" spans="1:1" ht="13.5">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" ht="15">
+    <row r="39" spans="1:1" ht="13.5">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" ht="15">
+    <row r="40" spans="1:1" ht="13.5">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" ht="15">
+    <row r="41" spans="1:1" ht="13.5">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" ht="15">
+    <row r="42" spans="1:1" ht="13.5">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1" ht="15">
+    <row r="43" spans="1:1" ht="13.5">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1" ht="15">
+    <row r="44" spans="1:1" ht="13.5">
       <c r="A44" s="2"/>
     </row>
   </sheetData>
@@ -3097,8 +3098,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:F8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3113,35 +3114,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="96"/>
-      <c r="B1" s="106" t="s">
+      <c r="A1" s="93"/>
+      <c r="B1" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="112" t="str">
+      <c r="C3" s="111" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="114"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="113"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3155,203 +3156,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="109" t="str">
+      <c r="C5" s="107"/>
+      <c r="D5" s="108" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="110"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116" t="str">
+      <c r="C6" s="114"/>
+      <c r="D6" s="115" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="118"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="117"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="176" t="str">
+      <c r="C7" s="114"/>
+      <c r="D7" s="171" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="177"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="43" t="s">
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="178" t="str">
+      <c r="H7" s="173" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="178"/>
-      <c r="J7" s="179"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="174"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="119" t="str">
+      <c r="C8" s="114"/>
+      <c r="D8" s="118" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="122" t="s">
+      <c r="E8" s="119"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="119" t="s">
+      <c r="H8" s="122"/>
+      <c r="I8" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="121"/>
+      <c r="J8" s="120"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="130" t="str">
+      <c r="C9" s="124"/>
+      <c r="D9" s="129" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="126"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="126"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="135"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="134"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="126"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="135"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="134"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="126"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="135"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="134"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="126"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="135"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="134"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="126"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="135"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="134"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="126"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="135"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="134"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="126"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="135"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="134"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="126"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="135"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="134"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="136"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="138"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="137"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3365,91 +3366,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="125"/>
-      <c r="D21" s="139" t="str">
+      <c r="C21" s="124"/>
+      <c r="D21" s="138" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="140"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="126"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="144"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="143"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="126"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="144"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="143"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="126"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="144"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="143"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="126"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="144"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="143"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="128"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="144"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="143"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="150" t="str">
+      <c r="C27" s="114"/>
+      <c r="D27" s="247" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="153"/>
+      <c r="E27" s="248"/>
+      <c r="F27" s="248"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="250"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3463,112 +3464,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="124" t="s">
+      <c r="B29" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="154"/>
-      <c r="D29" s="122" t="s">
+      <c r="C29" s="149"/>
+      <c r="D29" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="160"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="119" t="str">
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="118" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="121"/>
+      <c r="J29" s="120"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="126"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="122" t="s">
+      <c r="B30" s="125"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="119" t="s">
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="121"/>
+      <c r="J30" s="120"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="156"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="162" t="s">
+      <c r="B31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="163"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="122" t="s">
+      <c r="E31" s="158"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="123"/>
-      <c r="I31" s="119" t="str">
+      <c r="H31" s="122"/>
+      <c r="I31" s="118" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="121"/>
+      <c r="J31" s="120"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="156"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="122" t="s">
+      <c r="B32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="123"/>
-      <c r="I32" s="171" t="str">
+      <c r="H32" s="122"/>
+      <c r="I32" s="166" t="str">
         <f>記入!B26</f>
         <v xml:space="preserve">Office Scan </v>
       </c>
-      <c r="J32" s="121"/>
+      <c r="J32" s="120"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="157"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="122" t="s">
+      <c r="B33" s="152"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="123"/>
-      <c r="I33" s="119" t="s">
+      <c r="H33" s="122"/>
+      <c r="I33" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="121"/>
+      <c r="J33" s="120"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="143"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="146" t="s">
+      <c r="B35" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="147"/>
-      <c r="D35" s="146" t="s">
+      <c r="C35" s="146"/>
+      <c r="D35" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="146"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3616,44 +3617,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="149" t="s">
+      <c r="E45" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="125"/>
-      <c r="G45" s="149" t="s">
+      <c r="F45" s="124"/>
+      <c r="G45" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="125"/>
+      <c r="H45" s="124"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="126"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="127"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="126"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="128"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="129"/>
+      <c r="E47" s="127"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="128"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="172"/>
-      <c r="F48" s="173"/>
-      <c r="G48" s="172"/>
-      <c r="H48" s="173"/>
+      <c r="E48" s="167"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="167"/>
+      <c r="H48" s="168"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="174"/>
-      <c r="F49" s="175"/>
-      <c r="G49" s="174"/>
-      <c r="H49" s="175"/>
+      <c r="E49" s="169"/>
+      <c r="F49" s="170"/>
+      <c r="G49" s="169"/>
+      <c r="H49" s="170"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="168"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="170"/>
+      <c r="E50" s="163"/>
+      <c r="F50" s="165"/>
+      <c r="G50" s="163"/>
+      <c r="H50" s="165"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3730,7 +3731,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+      <selection activeCell="G15" sqref="G15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3748,29 +3749,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A1" s="96"/>
-      <c r="B1" s="208" t="s">
+      <c r="A1" s="93"/>
+      <c r="B1" s="203" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3781,7 +3782,7 @@
       <c r="G3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="44" t="str">
+      <c r="H3" s="96" t="str">
         <f>記入!B16</f>
         <v>${na.deliveryfinshdate}</v>
       </c>
@@ -3798,16 +3799,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="219" t="str">
+      <c r="B5" s="214" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="215"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -3817,12 +3818,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="210" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
+      <c r="F6" s="205" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="205"/>
+      <c r="H6" s="205"/>
+      <c r="I6" s="205"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3830,7 +3831,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -3843,12 +3844,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="210" t="s">
+      <c r="F8" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="210"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="210"/>
+      <c r="G8" s="205"/>
+      <c r="H8" s="205"/>
+      <c r="I8" s="205"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3863,7 +3864,7 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A10" s="97"/>
+      <c r="A10" s="94"/>
       <c r="B10" s="18"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -3898,160 +3899,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="211" t="s">
+      <c r="B13" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="212"/>
-      <c r="D13" s="213" t="str">
+      <c r="C13" s="207"/>
+      <c r="D13" s="208" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="215"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="209"/>
+      <c r="H13" s="209"/>
+      <c r="I13" s="210"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="189" t="str">
+      <c r="C14" s="177"/>
+      <c r="D14" s="184" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="191"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="186"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="183" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="42" t="str">
+      <c r="C15" s="177"/>
+      <c r="D15" s="97" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="181" t="s">
+      <c r="E15" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="182"/>
-      <c r="G15" s="216" t="str">
+      <c r="F15" s="177"/>
+      <c r="G15" s="211" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="217"/>
-      <c r="I15" s="218"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="213"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="188" t="s">
+      <c r="B16" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="182"/>
+      <c r="C16" s="177"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="181" t="s">
+      <c r="E16" s="176" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="182"/>
-      <c r="G16" s="189" t="s">
+      <c r="F16" s="177"/>
+      <c r="G16" s="184" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="190"/>
-      <c r="I16" s="191"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="186"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="187" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="181" t="s">
+      <c r="C17" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="181" t="s">
+      <c r="D17" s="177"/>
+      <c r="E17" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="182"/>
+      <c r="F17" s="177"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="181" t="s">
+      <c r="H17" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="195"/>
+      <c r="I17" s="190"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="193"/>
-      <c r="C18" s="206" t="str">
+      <c r="B18" s="188"/>
+      <c r="C18" s="201" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="207"/>
-      <c r="E18" s="181" t="s">
+      <c r="D18" s="202"/>
+      <c r="E18" s="176" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="182"/>
+      <c r="F18" s="177"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="200"/>
-      <c r="I18" s="201"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="196"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="193"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="197"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="192"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="203"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="198"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="193"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="197"/>
+      <c r="B20" s="188"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="192"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="203"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="198"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="193"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="197"/>
+      <c r="B21" s="188"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="192"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="202"/>
-      <c r="I21" s="203"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="198"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="193"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="196"/>
-      <c r="F22" s="197"/>
+      <c r="B22" s="188"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="192"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="203"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="198"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="194"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="199"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="194"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="205"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="200"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4093,14 +4094,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="180" t="s">
+      <c r="F27" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="180" t="str">
+      <c r="G27" s="175" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="180"/>
+      <c r="H27" s="175"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4108,11 +4109,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="181" t="s">
+      <c r="F28" s="175"/>
+      <c r="G28" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="182"/>
+      <c r="H28" s="177"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4120,7 +4121,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="180"/>
+      <c r="F29" s="175"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4134,9 +4135,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4144,9 +4145,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4154,9 +4155,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="178"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4189,7 +4190,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9" ht="14.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="34" t="s">
         <v>45</v>
       </c>
@@ -4201,7 +4202,7 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="39" spans="2:9" ht="14.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="10"/>
     </row>
   </sheetData>
@@ -4257,8 +4258,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:H5"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4276,29 +4277,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A1" s="96"/>
-      <c r="B1" s="208" t="s">
+      <c r="A1" s="93"/>
+      <c r="B1" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4309,7 +4310,7 @@
       <c r="G3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="44" t="str">
+      <c r="H3" s="96" t="str">
         <f>記入!B16</f>
         <v>${na.deliveryfinshdate}</v>
       </c>
@@ -4326,16 +4327,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="219" t="str">
+      <c r="B5" s="214" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="215"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -4345,12 +4346,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="210" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
+      <c r="F6" s="205" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="205"/>
+      <c r="H6" s="205"/>
+      <c r="I6" s="205"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4358,7 +4359,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="21"/>
       <c r="F7" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
@@ -4371,12 +4372,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="210" t="s">
+      <c r="F8" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="210"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="210"/>
+      <c r="G8" s="205"/>
+      <c r="H8" s="205"/>
+      <c r="I8" s="205"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4425,160 +4426,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="211" t="s">
+      <c r="B13" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="212"/>
-      <c r="D13" s="213" t="str">
+      <c r="C13" s="207"/>
+      <c r="D13" s="208" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="215"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="209"/>
+      <c r="G13" s="209"/>
+      <c r="H13" s="209"/>
+      <c r="I13" s="210"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="189" t="str">
+      <c r="C14" s="177"/>
+      <c r="D14" s="184" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="191"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="186"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="183" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="42" t="str">
+      <c r="C15" s="177"/>
+      <c r="D15" s="97" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="181" t="s">
+      <c r="E15" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="182"/>
-      <c r="G15" s="216" t="str">
+      <c r="F15" s="177"/>
+      <c r="G15" s="211" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="217"/>
-      <c r="I15" s="218"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="213"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="188" t="s">
+      <c r="B16" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="182"/>
+      <c r="C16" s="177"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="181" t="s">
+      <c r="E16" s="176" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="182"/>
-      <c r="G16" s="189" t="s">
+      <c r="F16" s="177"/>
+      <c r="G16" s="184" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="190"/>
-      <c r="I16" s="191"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="186"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="187" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="181" t="s">
+      <c r="C17" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="181" t="s">
+      <c r="D17" s="177"/>
+      <c r="E17" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="182"/>
+      <c r="F17" s="177"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="181" t="s">
+      <c r="H17" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="195"/>
+      <c r="I17" s="190"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="193"/>
-      <c r="C18" s="206" t="str">
+      <c r="B18" s="188"/>
+      <c r="C18" s="201" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="207"/>
-      <c r="E18" s="181" t="s">
+      <c r="D18" s="202"/>
+      <c r="E18" s="176" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="182"/>
+      <c r="F18" s="177"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="200"/>
-      <c r="I18" s="201"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="196"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="193"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="197"/>
+      <c r="B19" s="188"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="192"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="203"/>
+      <c r="H19" s="197"/>
+      <c r="I19" s="198"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="193"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="197"/>
+      <c r="B20" s="188"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="192"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="203"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="198"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="193"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="197"/>
+      <c r="B21" s="188"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="192"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="202"/>
-      <c r="I21" s="203"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="198"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="193"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="196"/>
-      <c r="F22" s="197"/>
+      <c r="B22" s="188"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="192"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="203"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="198"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="194"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="199"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="194"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="205"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="200"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4620,14 +4621,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="180" t="s">
+      <c r="F27" s="175" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="180" t="str">
+      <c r="G27" s="175" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="180"/>
+      <c r="H27" s="175"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4635,11 +4636,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="181" t="s">
+      <c r="F28" s="175"/>
+      <c r="G28" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="182"/>
+      <c r="H28" s="177"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4647,7 +4648,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="180"/>
+      <c r="F29" s="175"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4661,9 +4662,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4671,9 +4672,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4681,9 +4682,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="178"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4716,7 +4717,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9" ht="14.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="34" t="s">
         <v>49</v>
       </c>
@@ -4728,7 +4729,7 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="39" spans="2:9" ht="14.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="10"/>
     </row>
   </sheetData>
@@ -4738,11 +4739,6 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
@@ -4754,6 +4750,11 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4806,55 +4807,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="221" t="s">
+      <c r="C3" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="222"/>
+      <c r="D3" s="217"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="224"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="219"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="225" t="str">
+      <c r="C5" s="220" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="226"/>
+      <c r="D5" s="221"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="227"/>
-      <c r="D6" s="228"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="223"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="239" t="str">
+      <c r="C7" s="234" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="240"/>
+      <c r="D7" s="235"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="240"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="235"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="233" t="str">
+      <c r="C9" s="228" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="234"/>
+      <c r="D9" s="229"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -4870,34 +4871,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="235" t="s">
+      <c r="C11" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="236"/>
+      <c r="D11" s="231"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="237" t="str">
+      <c r="C12" s="232" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="238"/>
+      <c r="D12" s="233"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="229" t="str">
+      <c r="C13" s="224" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="230"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="231"/>
-      <c r="D14" s="232"/>
+      <c r="C14" s="226"/>
+      <c r="D14" s="227"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -4952,362 +4953,362 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="46"/>
-    <col min="3" max="3" width="6" style="46" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" style="46" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="1" width="2.5703125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="44"/>
+    <col min="3" max="3" width="6" style="44" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="44" customWidth="1"/>
+    <col min="6" max="6" width="1.140625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="44" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="44" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" style="44" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5">
-      <c r="B1" s="246" t="s">
+      <c r="B1" s="241" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
     </row>
     <row r="2" spans="2:9" ht="31.5">
-      <c r="B2" s="246" t="s">
+      <c r="B2" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
     </row>
     <row r="3" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B3" s="247"/>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="47"/>
+      <c r="B3" s="242"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="244" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="250" t="str">
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="245" t="str">
         <f>記入!B3</f>
         <v>${na.depositenglish}</v>
       </c>
-      <c r="F4" s="250"/>
-      <c r="G4" s="250"/>
-      <c r="H4" s="250"/>
-      <c r="I4" s="250"/>
+      <c r="F4" s="245"/>
+      <c r="G4" s="245"/>
+      <c r="H4" s="245"/>
+      <c r="I4" s="245"/>
     </row>
     <row r="5" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B5" s="248" t="s">
+      <c r="B5" s="243" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="81" t="str">
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="78" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="248" t="s">
+      <c r="F5" s="46"/>
+      <c r="G5" s="243" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="248"/>
-      <c r="I5" s="81" t="str">
+      <c r="H5" s="243"/>
+      <c r="I5" s="78" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B6" s="248" t="s">
+      <c r="B6" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="248"/>
-      <c r="D6" s="248"/>
-      <c r="E6" s="49" t="s">
+      <c r="C6" s="243"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="248" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="243" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="248"/>
-      <c r="I6" s="82" t="str">
+      <c r="H6" s="243"/>
+      <c r="I6" s="79" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" customHeight="1">
-      <c r="B7" s="241" t="s">
+      <c r="B7" s="236" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="241"/>
-      <c r="D7" s="241"/>
-      <c r="E7" s="83" t="str">
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="80" t="str">
         <f>記入!B16</f>
         <v>${na.deliveryfinshdate}</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54" t="s">
+      <c r="F8" s="51"/>
+      <c r="G8" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="48" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="21" customHeight="1">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60" t="s">
+      <c r="F9" s="57"/>
+      <c r="G9" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="53" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="48"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="242" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="237" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="243"/>
+      <c r="I10" s="238"/>
     </row>
     <row r="11" spans="2:9" ht="62.25" customHeight="1">
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="244" t="str">
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="239" t="str">
         <f>記入!B11</f>
         <v>${na.pjnamechinese}</v>
       </c>
-      <c r="E11" s="245"/>
-      <c r="F11" s="245"/>
-      <c r="G11" s="245"/>
-      <c r="H11" s="245"/>
-      <c r="I11" s="245"/>
+      <c r="E11" s="240"/>
+      <c r="F11" s="240"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="240"/>
+      <c r="I11" s="240"/>
     </row>
     <row r="12" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67" t="s">
+      <c r="C12" s="64"/>
+      <c r="D12" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="69" t="s">
+      <c r="F12" s="46"/>
+      <c r="G12" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="84" t="e">
+      <c r="H12" s="68"/>
+      <c r="I12" s="81" t="e">
         <f>I19-I13</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B13" s="48"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="68" t="s">
+      <c r="B13" s="46"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="69" t="s">
+      <c r="F13" s="46"/>
+      <c r="G13" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="84">
+      <c r="H13" s="68"/>
+      <c r="I13" s="81">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="48"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="85"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="82"/>
     </row>
     <row r="15" spans="2:9" ht="72.75" customHeight="1">
-      <c r="B15" s="48"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="85"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="82"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="48"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="85"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" spans="2:9" ht="31.5" customHeight="1">
-      <c r="B17" s="48"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="85"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="48"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="70" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="85"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="48"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="69" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="86" t="str">
+      <c r="H19" s="68"/>
+      <c r="I19" s="83" t="str">
         <f>記入!B20</f>
         <v>${na.claimamount}</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="48"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="48"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="46"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="48"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="48"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="48"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="48"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="2:9" ht="42.75" customHeight="1">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -847,7 +847,7 @@
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="179" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1677,7 +1677,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1770,9 +1770,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1921,14 +1918,13 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1952,116 +1948,38 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2069,8 +1987,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2083,6 +2010,39 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2116,194 +2076,218 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2333,6 +2317,36 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2363,20 +2377,12 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="18" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="179" fontId="18" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2688,8 +2694,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2701,333 +2707,333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="D1" s="99" t="s">
+      <c r="B1" s="97"/>
+      <c r="D1" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="100"/>
+      <c r="E1" s="99"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
-    </row>
-    <row r="4" spans="1:5" s="70" customFormat="1">
-      <c r="A4" s="90" t="s">
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
+    </row>
+    <row r="4" spans="1:5" s="69" customFormat="1">
+      <c r="A4" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="76" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="102"/>
-    </row>
-    <row r="6" spans="1:5" s="70" customFormat="1">
-      <c r="A6" s="92" t="s">
+      <c r="D5" s="100"/>
+      <c r="E5" s="101"/>
+    </row>
+    <row r="6" spans="1:5" s="69" customFormat="1">
+      <c r="A6" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="76" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="102"/>
-    </row>
-    <row r="7" spans="1:5" s="70" customFormat="1">
-      <c r="A7" s="92" t="s">
+      <c r="D6" s="100"/>
+      <c r="E6" s="101"/>
+    </row>
+    <row r="7" spans="1:5" s="69" customFormat="1">
+      <c r="A7" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="76" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="102"/>
-    </row>
-    <row r="8" spans="1:5" s="70" customFormat="1">
-      <c r="A8" s="90" t="s">
+      <c r="D7" s="100"/>
+      <c r="E7" s="101"/>
+    </row>
+    <row r="8" spans="1:5" s="69" customFormat="1">
+      <c r="A8" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="76" t="s">
+      <c r="B8" s="73"/>
+      <c r="C8" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="102"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="101"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="87" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="102"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="101"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="102"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="101"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="101"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="251" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="251" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="246" t="s">
+      <c r="B16" s="252" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="101"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="246" t="s">
+      <c r="B17" s="252" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="246" t="s">
+      <c r="B18" s="252" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="76" t="s">
+      <c r="B19" s="85"/>
+      <c r="C19" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="101"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="101"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="85"/>
-      <c r="C21" s="76" t="s">
+      <c r="B21" s="84"/>
+      <c r="C21" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="101"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="76" t="s">
+      <c r="B22" s="84"/>
+      <c r="C22" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="101"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="102"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="101"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="101"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="91" t="s">
+      <c r="A25" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="71" t="str">
+      <c r="B25" s="70" t="str">
         <f>"GF-"&amp;B12</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="101"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="101"/>
     </row>
     <row r="27" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
     </row>
     <row r="28" spans="1:5" ht="13.5">
       <c r="A28" s="2"/>
@@ -3098,8 +3104,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31:J31"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3114,35 +3120,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="93"/>
-      <c r="B1" s="105" t="s">
+      <c r="A1" s="92"/>
+      <c r="B1" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="111" t="str">
+      <c r="C3" s="171" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="173"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3156,203 +3162,200 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108" t="str">
+      <c r="C5" s="167"/>
+      <c r="D5" s="168" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="170"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115" t="str">
+      <c r="C6" s="131"/>
+      <c r="D6" s="174" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="176"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="171" t="str">
+      <c r="C7" s="131"/>
+      <c r="D7" s="110" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="42" t="s">
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="173" t="str">
+      <c r="H7" s="112" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="173"/>
-      <c r="J7" s="174"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="113"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="118" t="str">
+      <c r="C8" s="131"/>
+      <c r="D8" s="119" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="119"/>
+      <c r="E8" s="165"/>
       <c r="F8" s="120"/>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="118" t="s">
+      <c r="H8" s="118"/>
+      <c r="I8" s="119" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="120"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="129" t="str">
-        <f>記入!B10</f>
-        <v>${na.pjnamejapanese}</v>
-      </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="154"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="125"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="134"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="157"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="125"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="134"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="157"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="125"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="134"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="157"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="125"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="134"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="157"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="125"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="134"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="157"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="125"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="134"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="157"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="125"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="157"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="125"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="134"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="157"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="125"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="134"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="157"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="127"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="137"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="160"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3366,91 +3369,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="138" t="str">
+      <c r="C21" s="125"/>
+      <c r="D21" s="161" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="140"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="163"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="125"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="143"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="116"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="125"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="143"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="116"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="125"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="143"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="116"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="125"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="143"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="127"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="143"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="116"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="247" t="str">
+      <c r="C27" s="131"/>
+      <c r="D27" s="132" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="248"/>
-      <c r="F27" s="248"/>
-      <c r="G27" s="249"/>
-      <c r="H27" s="249"/>
-      <c r="I27" s="249"/>
-      <c r="J27" s="250"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="134"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3464,83 +3467,83 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="149"/>
-      <c r="D29" s="121" t="s">
+      <c r="C29" s="136"/>
+      <c r="D29" s="117" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="118" t="str">
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="119" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
       <c r="J29" s="120"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="125"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="121" t="s">
+      <c r="B30" s="126"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="118" t="s">
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="119" t="s">
         <v>4</v>
       </c>
       <c r="J30" s="120"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="151"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="157" t="s">
+      <c r="B31" s="138"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="158"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="121" t="s">
+      <c r="E31" s="145"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="122"/>
-      <c r="I31" s="118" t="str">
+      <c r="H31" s="118"/>
+      <c r="I31" s="119" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
       <c r="J31" s="120"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="151"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="121" t="s">
+      <c r="B32" s="138"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="122"/>
-      <c r="I32" s="166" t="str">
+      <c r="H32" s="118"/>
+      <c r="I32" s="151" t="str">
         <f>記入!B26</f>
         <v xml:space="preserve">Office Scan </v>
       </c>
       <c r="J32" s="120"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="152"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="121" t="s">
+      <c r="B33" s="139"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="122"/>
-      <c r="I33" s="118" t="s">
+      <c r="H33" s="118"/>
+      <c r="I33" s="119" t="s">
         <v>4</v>
       </c>
       <c r="J33" s="120"/>
@@ -3548,28 +3551,28 @@
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="145" t="s">
+      <c r="B35" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="146"/>
-      <c r="D35" s="145" t="s">
+      <c r="C35" s="122"/>
+      <c r="D35" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="146"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="122"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3617,44 +3620,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="148" t="s">
+      <c r="E45" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="124"/>
-      <c r="G45" s="148" t="s">
+      <c r="F45" s="125"/>
+      <c r="G45" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="124"/>
+      <c r="H45" s="125"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="125"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="126"/>
+      <c r="E46" s="126"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="126"/>
+      <c r="H46" s="127"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="127"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="128"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="129"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="167"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="168"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="105"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="169"/>
-      <c r="F49" s="170"/>
-      <c r="G49" s="169"/>
-      <c r="H49" s="170"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="107"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="163"/>
-      <c r="F50" s="165"/>
-      <c r="G50" s="163"/>
-      <c r="H50" s="165"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="109"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3662,16 +3665,25 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="E45:F47"/>
@@ -3686,25 +3698,16 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3730,7 +3733,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15:I15"/>
     </sheetView>
   </sheetViews>
@@ -3749,29 +3752,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A1" s="93"/>
-      <c r="B1" s="203" t="s">
+      <c r="A1" s="92"/>
+      <c r="B1" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3782,7 +3785,7 @@
       <c r="G3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="96" t="str">
+      <c r="H3" s="95" t="str">
         <f>記入!B16</f>
         <v>${na.deliveryfinshdate}</v>
       </c>
@@ -3799,16 +3802,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="214" t="str">
+      <c r="B5" s="198" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
-      <c r="H5" s="215"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -3818,12 +3821,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="205" t="s">
+      <c r="F6" s="183" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="205"/>
-      <c r="H6" s="205"/>
-      <c r="I6" s="205"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3844,12 +3847,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="205" t="s">
+      <c r="F8" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="205"/>
-      <c r="H8" s="205"/>
-      <c r="I8" s="205"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3864,7 +3867,7 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A10" s="94"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="18"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -3899,160 +3902,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="206" t="s">
+      <c r="B13" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="207"/>
-      <c r="D13" s="208" t="str">
+      <c r="C13" s="185"/>
+      <c r="D13" s="186" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="209"/>
-      <c r="H13" s="209"/>
-      <c r="I13" s="210"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="188"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="183" t="s">
+      <c r="B14" s="189" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="184" t="str">
+      <c r="C14" s="190"/>
+      <c r="D14" s="191" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="186"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="193"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="183" t="s">
+      <c r="B15" s="189" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="97" t="str">
+      <c r="C15" s="190"/>
+      <c r="D15" s="96" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="176" t="s">
+      <c r="E15" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="177"/>
-      <c r="G15" s="211" t="str">
+      <c r="F15" s="190"/>
+      <c r="G15" s="194" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="212"/>
-      <c r="I15" s="213"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="196"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="183" t="s">
+      <c r="B16" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="177"/>
+      <c r="C16" s="190"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="197" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="177"/>
-      <c r="G16" s="184" t="s">
+      <c r="F16" s="190"/>
+      <c r="G16" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="185"/>
-      <c r="I16" s="186"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="193"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="187" t="s">
+      <c r="B17" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="176" t="s">
+      <c r="C17" s="197" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="177"/>
-      <c r="E17" s="176" t="s">
+      <c r="D17" s="190"/>
+      <c r="E17" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="177"/>
+      <c r="F17" s="190"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="176" t="s">
+      <c r="H17" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="190"/>
+      <c r="I17" s="205"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="188"/>
-      <c r="C18" s="201" t="str">
+      <c r="B18" s="203"/>
+      <c r="C18" s="177" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="202"/>
-      <c r="E18" s="176" t="s">
+      <c r="D18" s="178"/>
+      <c r="E18" s="197" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="177"/>
+      <c r="F18" s="190"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="195"/>
-      <c r="I18" s="196"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="211"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="188"/>
+      <c r="B19" s="203"/>
       <c r="C19" s="179"/>
       <c r="D19" s="180"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="192"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="207"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="198"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="213"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="188"/>
+      <c r="B20" s="203"/>
       <c r="C20" s="179"/>
       <c r="D20" s="180"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="192"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="207"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="198"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="213"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="188"/>
+      <c r="B21" s="203"/>
       <c r="C21" s="179"/>
       <c r="D21" s="180"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="192"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="207"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="198"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="213"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="188"/>
+      <c r="B22" s="203"/>
       <c r="C22" s="179"/>
       <c r="D22" s="180"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="192"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="207"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="198"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="213"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="189"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="194"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="209"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="200"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="215"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4094,14 +4097,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="175" t="s">
+      <c r="F27" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="175" t="str">
+      <c r="G27" s="216" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="175"/>
+      <c r="H27" s="216"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4109,11 +4112,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176" t="s">
+      <c r="F28" s="216"/>
+      <c r="G28" s="197" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="177"/>
+      <c r="H28" s="190"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4121,7 +4124,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="175"/>
+      <c r="F29" s="216"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4135,9 +4138,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="217"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4145,9 +4148,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4155,9 +4158,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="217"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4207,6 +4210,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -4223,27 +4247,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4258,8 +4261,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:I15"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4277,29 +4280,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A1" s="93"/>
-      <c r="B1" s="203" t="s">
+      <c r="A1" s="92"/>
+      <c r="B1" s="181" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4310,7 +4313,7 @@
       <c r="G3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="96" t="str">
+      <c r="H3" s="95" t="str">
         <f>記入!B16</f>
         <v>${na.deliveryfinshdate}</v>
       </c>
@@ -4327,16 +4330,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="214" t="str">
+      <c r="B5" s="198" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
-      <c r="H5" s="215"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -4346,12 +4349,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="205" t="s">
+      <c r="F6" s="183" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="205"/>
-      <c r="H6" s="205"/>
-      <c r="I6" s="205"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4372,12 +4375,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="205" t="s">
+      <c r="F8" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="205"/>
-      <c r="H8" s="205"/>
-      <c r="I8" s="205"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4426,160 +4429,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="206" t="s">
+      <c r="B13" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="207"/>
-      <c r="D13" s="208" t="str">
+      <c r="C13" s="185"/>
+      <c r="D13" s="186" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="209"/>
-      <c r="H13" s="209"/>
-      <c r="I13" s="210"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="188"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="183" t="s">
+      <c r="B14" s="189" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="184" t="str">
+      <c r="C14" s="190"/>
+      <c r="D14" s="191" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="186"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="193"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="183" t="s">
+      <c r="B15" s="189" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="97" t="str">
+      <c r="C15" s="190"/>
+      <c r="D15" s="96" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="176" t="s">
+      <c r="E15" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="177"/>
-      <c r="G15" s="211" t="str">
+      <c r="F15" s="190"/>
+      <c r="G15" s="218" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="212"/>
-      <c r="I15" s="213"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="220"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="183" t="s">
+      <c r="B16" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="177"/>
+      <c r="C16" s="190"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="197" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="177"/>
-      <c r="G16" s="184" t="s">
+      <c r="F16" s="190"/>
+      <c r="G16" s="191" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="185"/>
-      <c r="I16" s="186"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="193"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="187" t="s">
+      <c r="B17" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="176" t="s">
+      <c r="C17" s="197" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="177"/>
-      <c r="E17" s="176" t="s">
+      <c r="D17" s="190"/>
+      <c r="E17" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="177"/>
+      <c r="F17" s="190"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="176" t="s">
+      <c r="H17" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="190"/>
+      <c r="I17" s="205"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="188"/>
-      <c r="C18" s="201" t="str">
+      <c r="B18" s="203"/>
+      <c r="C18" s="177" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="202"/>
-      <c r="E18" s="176" t="s">
+      <c r="D18" s="178"/>
+      <c r="E18" s="197" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="177"/>
+      <c r="F18" s="190"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="195"/>
-      <c r="I18" s="196"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="211"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="188"/>
+      <c r="B19" s="203"/>
       <c r="C19" s="179"/>
       <c r="D19" s="180"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="192"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="207"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="198"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="213"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="188"/>
+      <c r="B20" s="203"/>
       <c r="C20" s="179"/>
       <c r="D20" s="180"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="192"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="207"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="198"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="213"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="188"/>
+      <c r="B21" s="203"/>
       <c r="C21" s="179"/>
       <c r="D21" s="180"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="192"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="207"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="198"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="213"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="188"/>
+      <c r="B22" s="203"/>
       <c r="C22" s="179"/>
       <c r="D22" s="180"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="192"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="207"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="198"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="213"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="189"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="194"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="209"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="200"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="215"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4621,14 +4624,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="175" t="s">
+      <c r="F27" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="175" t="str">
+      <c r="G27" s="216" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="175"/>
+      <c r="H27" s="216"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4636,11 +4639,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176" t="s">
+      <c r="F28" s="216"/>
+      <c r="G28" s="197" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="177"/>
+      <c r="H28" s="190"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4648,7 +4651,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="175"/>
+      <c r="F29" s="216"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4662,9 +4665,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="217"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4672,9 +4675,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4682,9 +4685,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="217"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4734,6 +4737,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
@@ -4750,27 +4774,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4807,55 +4810,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="216" t="s">
+      <c r="C3" s="231" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="217"/>
+      <c r="D3" s="232"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="219"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="234"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="220" t="str">
+      <c r="C5" s="235" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="221"/>
+      <c r="D5" s="236"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="223"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="238"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="234" t="str">
+      <c r="C7" s="229" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="235"/>
+      <c r="D7" s="230"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="235"/>
+      <c r="C8" s="229"/>
+      <c r="D8" s="230"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="228" t="str">
+      <c r="C9" s="223" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="229"/>
+      <c r="D9" s="224"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -4871,34 +4874,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="230" t="s">
+      <c r="C11" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="231"/>
+      <c r="D11" s="226"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="232" t="str">
+      <c r="C12" s="227" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="233"/>
+      <c r="D12" s="228"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="224" t="str">
+      <c r="C13" s="239" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="225"/>
+      <c r="D13" s="240"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="226"/>
-      <c r="D14" s="227"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="222"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -4924,16 +4927,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C7:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4953,362 +4956,362 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="44"/>
-    <col min="3" max="3" width="6" style="44" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" style="44" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="44" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="44" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" style="44" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="1" width="2.5703125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="43"/>
+    <col min="3" max="3" width="6" style="43" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="1.140625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="43" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="43" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" style="43" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5">
-      <c r="B1" s="241" t="s">
+      <c r="B1" s="246" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
     </row>
     <row r="2" spans="2:9" ht="31.5">
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="246" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
     </row>
     <row r="3" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B3" s="242"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="45"/>
+      <c r="B3" s="247"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B4" s="244" t="s">
+      <c r="B4" s="249" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="244"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="245" t="str">
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="250" t="str">
         <f>記入!B3</f>
         <v>${na.depositenglish}</v>
       </c>
-      <c r="F4" s="245"/>
-      <c r="G4" s="245"/>
-      <c r="H4" s="245"/>
-      <c r="I4" s="245"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="H4" s="250"/>
+      <c r="I4" s="250"/>
     </row>
     <row r="5" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B5" s="243" t="s">
+      <c r="B5" s="248" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="78" t="str">
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="77" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="243" t="s">
+      <c r="F5" s="45"/>
+      <c r="G5" s="248" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="243"/>
-      <c r="I5" s="78" t="str">
+      <c r="H5" s="248"/>
+      <c r="I5" s="77" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B6" s="243" t="s">
+      <c r="B6" s="248" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="47" t="s">
+      <c r="C6" s="248"/>
+      <c r="D6" s="248"/>
+      <c r="E6" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="243" t="s">
+      <c r="F6" s="45"/>
+      <c r="G6" s="248" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="243"/>
-      <c r="I6" s="79" t="str">
+      <c r="H6" s="248"/>
+      <c r="I6" s="78" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" customHeight="1">
-      <c r="B7" s="236" t="s">
+      <c r="B7" s="241" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="236"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="80" t="str">
+      <c r="C7" s="241"/>
+      <c r="D7" s="241"/>
+      <c r="E7" s="79" t="str">
         <f>記入!B16</f>
         <v>${na.deliveryfinshdate}</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="2:9" ht="17.25" customHeight="1">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52" t="s">
+      <c r="F8" s="50"/>
+      <c r="G8" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="47" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="21" customHeight="1">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58" t="s">
+      <c r="F9" s="56"/>
+      <c r="G9" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="52" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B10" s="46"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="237" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="242" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="238"/>
+      <c r="I10" s="243"/>
     </row>
     <row r="11" spans="2:9" ht="62.25" customHeight="1">
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="239" t="str">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="244" t="str">
         <f>記入!B11</f>
         <v>${na.pjnamechinese}</v>
       </c>
-      <c r="E11" s="240"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="240"/>
-      <c r="I11" s="240"/>
+      <c r="E11" s="245"/>
+      <c r="F11" s="245"/>
+      <c r="G11" s="245"/>
+      <c r="H11" s="245"/>
+      <c r="I11" s="245"/>
     </row>
     <row r="12" spans="2:9" ht="28.5" customHeight="1">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="67" t="s">
+      <c r="F12" s="45"/>
+      <c r="G12" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="68"/>
-      <c r="I12" s="81" t="e">
+      <c r="H12" s="67"/>
+      <c r="I12" s="80" t="e">
         <f>I19-I13</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B13" s="46"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="66" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="67" t="s">
+      <c r="F13" s="45"/>
+      <c r="G13" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="81">
+      <c r="H13" s="67"/>
+      <c r="I13" s="80">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="46"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="82"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="81"/>
     </row>
     <row r="15" spans="2:9" ht="72.75" customHeight="1">
-      <c r="B15" s="46"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="82"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="81"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="46"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="82"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="81"/>
     </row>
     <row r="17" spans="2:9" ht="31.5" customHeight="1">
-      <c r="B17" s="46"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="82"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="81"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="46"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="68" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="82"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="81"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="46"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="67" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="83" t="str">
+      <c r="H19" s="67"/>
+      <c r="I19" s="82" t="str">
         <f>記入!B20</f>
         <v>${na.claimamount}</v>
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="46"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="46"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="45"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="46"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="46"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="45"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="46"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="46"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="45"/>
     </row>
     <row r="23" spans="2:9" ht="42.75" customHeight="1">
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -847,7 +847,7 @@
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="179" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1677,7 +1677,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1921,16 +1921,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1952,116 +1942,26 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2069,8 +1969,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2083,6 +1992,30 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2116,194 +2049,200 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2333,6 +2272,36 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2363,27 +2332,55 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="18" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 5" xfId="2"/>
     <cellStyle name="標準 6" xfId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2399,7 +2396,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2688,8 +2685,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2701,14 +2698,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="D1" s="99" t="s">
+      <c r="B1" s="95"/>
+      <c r="D1" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="100"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="90" t="s">
@@ -2720,8 +2717,8 @@
       <c r="C2" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="91" t="s">
@@ -2733,8 +2730,8 @@
       <c r="C3" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
     </row>
     <row r="4" spans="1:5" s="70" customFormat="1">
       <c r="A4" s="90" t="s">
@@ -2744,8 +2741,8 @@
       <c r="C4" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="99"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="90" t="s">
@@ -2757,8 +2754,8 @@
       <c r="C5" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="102"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99"/>
     </row>
     <row r="6" spans="1:5" s="70" customFormat="1">
       <c r="A6" s="92" t="s">
@@ -2768,8 +2765,8 @@
       <c r="C6" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="102"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="99"/>
     </row>
     <row r="7" spans="1:5" s="70" customFormat="1">
       <c r="A7" s="92" t="s">
@@ -2779,8 +2776,8 @@
       <c r="C7" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="102"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
     </row>
     <row r="8" spans="1:5" s="70" customFormat="1">
       <c r="A8" s="90" t="s">
@@ -2790,8 +2787,8 @@
       <c r="C8" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="99"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="91" t="s">
@@ -2803,8 +2800,8 @@
       <c r="C9" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="102"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="92" t="s">
@@ -2816,8 +2813,8 @@
       <c r="C10" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="102"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="99"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="92" t="s">
@@ -2829,8 +2826,8 @@
       <c r="C11" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="102"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="99"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="90" t="s">
@@ -2842,8 +2839,8 @@
       <c r="C12" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="99"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="90" t="s">
@@ -2855,73 +2852,73 @@
       <c r="C13" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="236" t="s">
         <v>138</v>
       </c>
       <c r="C14" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="236" t="s">
         <v>139</v>
       </c>
       <c r="C15" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="99"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="246" t="s">
+      <c r="B16" s="237" t="s">
         <v>126</v>
       </c>
       <c r="C16" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="99"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="246" t="s">
+      <c r="B17" s="237" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="246" t="s">
+      <c r="B18" s="237" t="s">
         <v>144</v>
       </c>
       <c r="C18" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="90" t="s">
@@ -2931,8 +2928,8 @@
       <c r="C19" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="90" t="s">
@@ -2944,8 +2941,8 @@
       <c r="C20" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="99"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="90" t="s">
@@ -2955,8 +2952,8 @@
       <c r="C21" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="90" t="s">
@@ -2966,8 +2963,8 @@
       <c r="C22" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="99"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="91" t="s">
@@ -2979,8 +2976,8 @@
       <c r="C23" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="102"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="99"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="91" t="s">
@@ -2992,8 +2989,8 @@
       <c r="C24" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="99"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="91" t="s">
@@ -3006,8 +3003,8 @@
       <c r="C25" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="99"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="91" t="s">
@@ -3016,8 +3013,8 @@
       <c r="B26" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="99"/>
     </row>
     <row r="27" spans="1:5" ht="13.5" thickBot="1">
       <c r="A27" s="91" t="s">
@@ -3026,58 +3023,58 @@
       <c r="B27" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104"/>
-    </row>
-    <row r="28" spans="1:5" ht="13.5">
+      <c r="D27" s="100"/>
+      <c r="E27" s="101"/>
+    </row>
+    <row r="28" spans="1:5" ht="15">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="13.5">
+    <row r="29" spans="1:5" ht="15">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="13.5">
+    <row r="30" spans="1:5" ht="15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="13.5">
+    <row r="31" spans="1:5" ht="15">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="13.5">
+    <row r="32" spans="1:5" ht="15">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" ht="13.5">
+    <row r="33" spans="1:1" ht="15">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" ht="13.5">
+    <row r="34" spans="1:1" ht="15">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" ht="13.5">
+    <row r="35" spans="1:1" ht="15">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" ht="13.5">
+    <row r="36" spans="1:1" ht="15">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" ht="13.5">
+    <row r="37" spans="1:1" ht="15">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" ht="13.5">
+    <row r="38" spans="1:1" ht="15">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" ht="13.5">
+    <row r="39" spans="1:1" ht="15">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" ht="13.5">
+    <row r="40" spans="1:1" ht="15">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" ht="13.5">
+    <row r="41" spans="1:1" ht="15">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" ht="13.5">
+    <row r="42" spans="1:1" ht="15">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1" ht="13.5">
+    <row r="43" spans="1:1" ht="15">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1" ht="13.5">
+    <row r="44" spans="1:1" ht="15">
       <c r="A44" s="2"/>
     </row>
   </sheetData>
@@ -3098,8 +3095,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31:J31"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3115,34 +3112,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="93"/>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="111" t="str">
+      <c r="C3" s="162" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="164"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3156,203 +3153,203 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108" t="str">
+      <c r="C5" s="158"/>
+      <c r="D5" s="159" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
+      <c r="I5" s="160"/>
+      <c r="J5" s="161"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115" t="str">
+      <c r="C6" s="125"/>
+      <c r="D6" s="165" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="167"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="171" t="str">
+      <c r="C7" s="125"/>
+      <c r="D7" s="238" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="172"/>
-      <c r="F7" s="172"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
       <c r="G7" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="173" t="str">
+      <c r="H7" s="240" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="173"/>
-      <c r="J7" s="174"/>
+      <c r="I7" s="240"/>
+      <c r="J7" s="241"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="118" t="str">
+      <c r="C8" s="125"/>
+      <c r="D8" s="113" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="119"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="121" t="s">
+      <c r="E8" s="156"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="118" t="s">
+      <c r="H8" s="112"/>
+      <c r="I8" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="120"/>
+      <c r="J8" s="114"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="129" t="str">
+      <c r="C9" s="119"/>
+      <c r="D9" s="143" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="145"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="125"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="134"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="148"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="125"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="134"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="148"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="125"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="134"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="148"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="125"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="134"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="148"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="125"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="134"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="148"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="125"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="134"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="148"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="125"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="125"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="134"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="148"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="125"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="134"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="148"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="127"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="137"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="151"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3366,91 +3363,91 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="138" t="str">
+      <c r="C21" s="119"/>
+      <c r="D21" s="152" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="140"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="154"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="125"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="143"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="110"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="125"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="143"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="110"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="125"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="143"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="110"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="125"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="143"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="110"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="127"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="143"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="110"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="247" t="str">
+      <c r="C27" s="125"/>
+      <c r="D27" s="242" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="248"/>
-      <c r="F27" s="248"/>
-      <c r="G27" s="249"/>
-      <c r="H27" s="249"/>
-      <c r="I27" s="249"/>
-      <c r="J27" s="250"/>
+      <c r="E27" s="240"/>
+      <c r="F27" s="240"/>
+      <c r="G27" s="243"/>
+      <c r="H27" s="243"/>
+      <c r="I27" s="243"/>
+      <c r="J27" s="244"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
       <c r="B28" s="7"/>
@@ -3464,112 +3461,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="149"/>
-      <c r="D29" s="121" t="s">
+      <c r="C29" s="127"/>
+      <c r="D29" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="118" t="str">
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="113" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="120"/>
+      <c r="J29" s="114"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="125"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="121" t="s">
+      <c r="B30" s="120"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="118" t="s">
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="120"/>
+      <c r="J30" s="114"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="151"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="157" t="s">
+      <c r="B31" s="129"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="158"/>
-      <c r="F31" s="159"/>
-      <c r="G31" s="121" t="s">
+      <c r="E31" s="136"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="122"/>
-      <c r="I31" s="118" t="str">
+      <c r="H31" s="112"/>
+      <c r="I31" s="113" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="120"/>
+      <c r="J31" s="114"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="151"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="121" t="s">
+      <c r="B32" s="129"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="122"/>
-      <c r="I32" s="166" t="str">
+      <c r="H32" s="112"/>
+      <c r="I32" s="142" t="str">
         <f>記入!B26</f>
         <v xml:space="preserve">Office Scan </v>
       </c>
-      <c r="J32" s="120"/>
+      <c r="J32" s="114"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="152"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="121" t="s">
+      <c r="B33" s="130"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="122"/>
-      <c r="I33" s="118" t="s">
+      <c r="H33" s="112"/>
+      <c r="I33" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="120"/>
+      <c r="J33" s="114"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="145" t="s">
+      <c r="B35" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="146"/>
-      <c r="D35" s="145" t="s">
+      <c r="C35" s="116"/>
+      <c r="D35" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="146"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="116"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3617,44 +3614,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="148" t="s">
+      <c r="E45" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="124"/>
-      <c r="G45" s="148" t="s">
+      <c r="F45" s="119"/>
+      <c r="G45" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="124"/>
+      <c r="H45" s="119"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="125"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="126"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="121"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="127"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="128"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="123"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="123"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="167"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="168"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="103"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="169"/>
-      <c r="F49" s="170"/>
-      <c r="G49" s="169"/>
-      <c r="H49" s="170"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="105"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="163"/>
-      <c r="F50" s="165"/>
-      <c r="G50" s="163"/>
-      <c r="H50" s="165"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="107"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3662,16 +3659,25 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="E45:F47"/>
@@ -3686,25 +3692,16 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3730,7 +3727,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15:I15"/>
     </sheetView>
   </sheetViews>
@@ -3750,28 +3747,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="93"/>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3782,7 +3779,7 @@
       <c r="G3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="96" t="str">
+      <c r="H3" s="245" t="str">
         <f>記入!B16</f>
         <v>${na.deliveryfinshdate}</v>
       </c>
@@ -3799,16 +3796,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="214" t="str">
+      <c r="B5" s="186" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
-      <c r="H5" s="215"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -3818,12 +3815,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="205" t="s">
+      <c r="F6" s="174" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="205"/>
-      <c r="H6" s="205"/>
-      <c r="I6" s="205"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="174"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3844,12 +3841,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="205" t="s">
+      <c r="F8" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="205"/>
-      <c r="H8" s="205"/>
-      <c r="I8" s="205"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="174"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3899,160 +3896,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="206" t="s">
+      <c r="B13" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="207"/>
-      <c r="D13" s="208" t="str">
+      <c r="C13" s="176"/>
+      <c r="D13" s="177" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="209"/>
-      <c r="H13" s="209"/>
-      <c r="I13" s="210"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="179"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="183" t="s">
+      <c r="B14" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="184" t="str">
+      <c r="C14" s="181"/>
+      <c r="D14" s="182" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="186"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="184"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="183" t="s">
+      <c r="B15" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="97" t="str">
+      <c r="C15" s="181"/>
+      <c r="D15" s="246" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="176" t="s">
+      <c r="E15" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="177"/>
-      <c r="G15" s="211" t="str">
+      <c r="F15" s="181"/>
+      <c r="G15" s="247" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="212"/>
-      <c r="I15" s="213"/>
+      <c r="H15" s="248"/>
+      <c r="I15" s="249"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="183" t="s">
+      <c r="B16" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="177"/>
+      <c r="C16" s="181"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="185" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="177"/>
-      <c r="G16" s="184" t="s">
+      <c r="F16" s="181"/>
+      <c r="G16" s="182" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="185"/>
-      <c r="I16" s="186"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="184"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="187" t="s">
+      <c r="B17" s="190" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="176" t="s">
+      <c r="C17" s="185" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="177"/>
-      <c r="E17" s="176" t="s">
+      <c r="D17" s="181"/>
+      <c r="E17" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="177"/>
+      <c r="F17" s="181"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="176" t="s">
+      <c r="H17" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="190"/>
+      <c r="I17" s="193"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="188"/>
-      <c r="C18" s="201" t="str">
+      <c r="B18" s="191"/>
+      <c r="C18" s="168" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="202"/>
-      <c r="E18" s="176" t="s">
+      <c r="D18" s="169"/>
+      <c r="E18" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="177"/>
+      <c r="F18" s="181"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="195"/>
-      <c r="I18" s="196"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="199"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="188"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="192"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="195"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="198"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="201"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="188"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="192"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="195"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="198"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="201"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="188"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="192"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="195"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="198"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="201"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="188"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="192"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="195"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="198"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="201"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="189"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="194"/>
+      <c r="B23" s="192"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="189"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="197"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="200"/>
+      <c r="H23" s="202"/>
+      <c r="I23" s="203"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4094,14 +4091,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="175" t="s">
+      <c r="F27" s="204" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="175" t="str">
+      <c r="G27" s="204" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="175"/>
+      <c r="H27" s="204"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4109,11 +4106,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176" t="s">
+      <c r="F28" s="204"/>
+      <c r="G28" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="177"/>
+      <c r="H28" s="181"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4121,7 +4118,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="175"/>
+      <c r="F29" s="204"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4135,9 +4132,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="205"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4145,9 +4142,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="205"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4155,9 +4152,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="205"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4190,7 +4187,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" ht="14.25">
       <c r="B36" s="34" t="s">
         <v>45</v>
       </c>
@@ -4202,11 +4199,32 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" ht="14.25">
       <c r="B39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
@@ -4223,27 +4241,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4258,7 +4255,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15:I15"/>
     </sheetView>
   </sheetViews>
@@ -4278,28 +4275,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="93"/>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="204" t="s">
+      <c r="C2" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4310,7 +4307,7 @@
       <c r="G3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="96" t="str">
+      <c r="H3" s="245" t="str">
         <f>記入!B16</f>
         <v>${na.deliveryfinshdate}</v>
       </c>
@@ -4327,16 +4324,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="214" t="str">
+      <c r="B5" s="186" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
-      <c r="H5" s="215"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -4346,12 +4343,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="205" t="s">
+      <c r="F6" s="174" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="205"/>
-      <c r="H6" s="205"/>
-      <c r="I6" s="205"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="174"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4372,12 +4369,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="205" t="s">
+      <c r="F8" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="205"/>
-      <c r="H8" s="205"/>
-      <c r="I8" s="205"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="174"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4426,160 +4423,160 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="206" t="s">
+      <c r="B13" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="207"/>
-      <c r="D13" s="208" t="str">
+      <c r="C13" s="176"/>
+      <c r="D13" s="177" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="209"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="209"/>
-      <c r="H13" s="209"/>
-      <c r="I13" s="210"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="179"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="183" t="s">
+      <c r="B14" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="184" t="str">
+      <c r="C14" s="181"/>
+      <c r="D14" s="182" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="186"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="184"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="183" t="s">
+      <c r="B15" s="180" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="97" t="str">
+      <c r="C15" s="181"/>
+      <c r="D15" s="246" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="176" t="s">
+      <c r="E15" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="177"/>
-      <c r="G15" s="211" t="str">
+      <c r="F15" s="181"/>
+      <c r="G15" s="247" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="212"/>
-      <c r="I15" s="213"/>
+      <c r="H15" s="248"/>
+      <c r="I15" s="249"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="183" t="s">
+      <c r="B16" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="177"/>
+      <c r="C16" s="181"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="185" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="177"/>
-      <c r="G16" s="184" t="s">
+      <c r="F16" s="181"/>
+      <c r="G16" s="182" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="185"/>
-      <c r="I16" s="186"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="184"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="187" t="s">
+      <c r="B17" s="190" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="176" t="s">
+      <c r="C17" s="185" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="177"/>
-      <c r="E17" s="176" t="s">
+      <c r="D17" s="181"/>
+      <c r="E17" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="177"/>
+      <c r="F17" s="181"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="176" t="s">
+      <c r="H17" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="190"/>
+      <c r="I17" s="193"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="188"/>
-      <c r="C18" s="201" t="str">
+      <c r="B18" s="191"/>
+      <c r="C18" s="168" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="202"/>
-      <c r="E18" s="176" t="s">
+      <c r="D18" s="169"/>
+      <c r="E18" s="185" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="177"/>
+      <c r="F18" s="181"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="195"/>
-      <c r="I18" s="196"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="199"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="188"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="192"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="195"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="197"/>
-      <c r="I19" s="198"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="201"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="188"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="192"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="195"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="198"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="201"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="188"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="192"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="195"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="198"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="201"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="188"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="192"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="195"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="198"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="201"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="189"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="194"/>
+      <c r="B23" s="192"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="189"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="197"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="200"/>
+      <c r="H23" s="202"/>
+      <c r="I23" s="203"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4621,14 +4618,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="175" t="s">
+      <c r="F27" s="204" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="175" t="str">
+      <c r="G27" s="204" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="175"/>
+      <c r="H27" s="204"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4636,11 +4633,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="176" t="s">
+      <c r="F28" s="204"/>
+      <c r="G28" s="185" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="177"/>
+      <c r="H28" s="181"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4648,7 +4645,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="175"/>
+      <c r="F29" s="204"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4662,9 +4659,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="205"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4672,9 +4669,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="205"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4682,9 +4679,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="205"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4717,7 +4714,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" ht="14.25">
       <c r="B36" s="34" t="s">
         <v>49</v>
       </c>
@@ -4729,11 +4726,32 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" ht="14.25">
       <c r="B39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
@@ -4750,27 +4768,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="B17:B23"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4836,26 +4833,26 @@
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="234" t="str">
+      <c r="C7" s="214" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="235"/>
+      <c r="D7" s="215"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="235"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="215"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="228" t="str">
+      <c r="C9" s="208" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="229"/>
+      <c r="D9" s="209"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -4871,19 +4868,19 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="230" t="s">
+      <c r="C11" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="231"/>
+      <c r="D11" s="211"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="232" t="str">
+      <c r="C12" s="212" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="233"/>
+      <c r="D12" s="213"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
@@ -4897,8 +4894,8 @@
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="226"/>
-      <c r="D14" s="227"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="207"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -4924,16 +4921,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C7:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4967,99 +4964,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5">
-      <c r="B1" s="241" t="s">
+      <c r="B1" s="231" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
     </row>
     <row r="2" spans="2:9" ht="31.5">
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="231" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
     </row>
     <row r="3" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B3" s="242"/>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
       <c r="I3" s="45"/>
     </row>
     <row r="4" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B4" s="244" t="s">
+      <c r="B4" s="234" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="244"/>
-      <c r="D4" s="244"/>
-      <c r="E4" s="245" t="str">
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235" t="str">
         <f>記入!B3</f>
         <v>${na.depositenglish}</v>
       </c>
-      <c r="F4" s="245"/>
-      <c r="G4" s="245"/>
-      <c r="H4" s="245"/>
-      <c r="I4" s="245"/>
+      <c r="F4" s="235"/>
+      <c r="G4" s="235"/>
+      <c r="H4" s="235"/>
+      <c r="I4" s="235"/>
     </row>
     <row r="5" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B5" s="243" t="s">
+      <c r="B5" s="233" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="78" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
       <c r="F5" s="46"/>
-      <c r="G5" s="243" t="s">
+      <c r="G5" s="233" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="243"/>
+      <c r="H5" s="233"/>
       <c r="I5" s="78" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B6" s="243" t="s">
+      <c r="B6" s="233" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="233"/>
       <c r="E6" s="47" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="46"/>
-      <c r="G6" s="243" t="s">
+      <c r="G6" s="233" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="243"/>
+      <c r="H6" s="233"/>
       <c r="I6" s="79" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" customHeight="1">
-      <c r="B7" s="236" t="s">
+      <c r="B7" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="236"/>
-      <c r="D7" s="236"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="226"/>
       <c r="E7" s="80" t="str">
         <f>記入!B16</f>
         <v>${na.deliveryfinshdate}</v>
@@ -5124,23 +5121,23 @@
       <c r="E10" s="60"/>
       <c r="F10" s="46"/>
       <c r="G10" s="46"/>
-      <c r="H10" s="237" t="s">
+      <c r="H10" s="227" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="238"/>
+      <c r="I10" s="228"/>
     </row>
     <row r="11" spans="2:9" ht="62.25" customHeight="1">
       <c r="B11" s="61"/>
       <c r="C11" s="62"/>
-      <c r="D11" s="239" t="str">
+      <c r="D11" s="229" t="str">
         <f>記入!B11</f>
         <v>${na.pjnamechinese}</v>
       </c>
-      <c r="E11" s="240"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="240"/>
-      <c r="I11" s="240"/>
+      <c r="E11" s="230"/>
+      <c r="F11" s="230"/>
+      <c r="G11" s="230"/>
+      <c r="H11" s="230"/>
+      <c r="I11" s="230"/>
     </row>
     <row r="12" spans="2:9" ht="28.5" customHeight="1">
       <c r="B12" s="63" t="s">

--- a/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="15135" windowHeight="9285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
@@ -843,11 +843,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -1942,45 +1941,126 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1992,30 +2072,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2049,86 +2105,107 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2136,12 +2213,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2166,83 +2237,41 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2272,36 +2301,6 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2332,55 +2331,55 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="31" fontId="18" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="18" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="18" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 5" xfId="2"/>
     <cellStyle name="標準 6" xfId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2396,7 +2395,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2685,8 +2684,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3026,55 +3025,55 @@
       <c r="D27" s="100"/>
       <c r="E27" s="101"/>
     </row>
-    <row r="28" spans="1:5" ht="15">
+    <row r="28" spans="1:5" ht="13.5">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15">
+    <row r="29" spans="1:5" ht="13.5">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15">
+    <row r="30" spans="1:5" ht="13.5">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15">
+    <row r="31" spans="1:5" ht="13.5">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15">
+    <row r="32" spans="1:5" ht="13.5">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" ht="15">
+    <row r="33" spans="1:1" ht="13.5">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" ht="15">
+    <row r="34" spans="1:1" ht="13.5">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" ht="15">
+    <row r="35" spans="1:1" ht="13.5">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" ht="15">
+    <row r="36" spans="1:1" ht="13.5">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" ht="15">
+    <row r="37" spans="1:1" ht="13.5">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" ht="15">
+    <row r="38" spans="1:1" ht="13.5">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" ht="15">
+    <row r="39" spans="1:1" ht="13.5">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" ht="15">
+    <row r="40" spans="1:1" ht="13.5">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" ht="15">
+    <row r="41" spans="1:1" ht="13.5">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" ht="15">
+    <row r="42" spans="1:1" ht="13.5">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1" ht="15">
+    <row r="43" spans="1:1" ht="13.5">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1" ht="15">
+    <row r="44" spans="1:1" ht="13.5">
       <c r="A44" s="2"/>
     </row>
   </sheetData>
@@ -3095,7 +3094,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D27" sqref="D27:J27"/>
     </sheetView>
   </sheetViews>
@@ -3112,34 +3111,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="93"/>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="162" t="str">
+      <c r="C3" s="108" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="164"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
       <c r="B4" s="7"/>
@@ -3153,42 +3152,42 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="159" t="str">
+      <c r="C5" s="104"/>
+      <c r="D5" s="105" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="161"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="107"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="165" t="str">
+      <c r="C6" s="111"/>
+      <c r="D6" s="112" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="167"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="114"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="125"/>
+      <c r="C7" s="111"/>
       <c r="D7" s="238" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
@@ -3206,150 +3205,150 @@
       <c r="J7" s="241"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="113" t="str">
+      <c r="C8" s="111"/>
+      <c r="D8" s="115" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="156"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="111" t="s">
+      <c r="E8" s="116"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="112"/>
-      <c r="I8" s="113" t="s">
+      <c r="H8" s="119"/>
+      <c r="I8" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="114"/>
+      <c r="J8" s="117"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="143" t="str">
+      <c r="C9" s="121"/>
+      <c r="D9" s="126" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="145"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="128"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="120"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="148"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="131"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="120"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="148"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="148"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="131"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="120"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="148"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="131"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="120"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="148"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="131"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="120"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="148"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="131"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="120"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="131"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="120"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="148"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="131"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="120"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="148"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="131"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="122"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="151"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="134"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
       <c r="B20" s="7"/>
@@ -3363,81 +3362,81 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="152" t="str">
+      <c r="C21" s="121"/>
+      <c r="D21" s="135" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="154"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="137"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="120"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="110"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="140"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="120"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="110"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="140"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="120"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="110"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="140"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="120"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="110"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="140"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="122"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="110"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="140"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="124" t="s">
+      <c r="B27" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="125"/>
+      <c r="C27" s="111"/>
       <c r="D27" s="242" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
@@ -3461,112 +3460,112 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="126" t="s">
+      <c r="B29" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="127"/>
-      <c r="D29" s="111" t="s">
+      <c r="C29" s="146"/>
+      <c r="D29" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="113" t="str">
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="115" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="114"/>
+      <c r="J29" s="117"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="120"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="111" t="s">
+      <c r="B30" s="122"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="133"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="113" t="s">
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="114"/>
+      <c r="J30" s="117"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="129"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="135" t="s">
+      <c r="B31" s="148"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="136"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="111" t="s">
+      <c r="E31" s="155"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="112"/>
-      <c r="I31" s="113" t="str">
+      <c r="H31" s="119"/>
+      <c r="I31" s="115" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="114"/>
+      <c r="J31" s="117"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="129"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="111" t="s">
+      <c r="B32" s="148"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="112"/>
-      <c r="I32" s="142" t="str">
+      <c r="H32" s="119"/>
+      <c r="I32" s="163" t="str">
         <f>記入!B26</f>
         <v xml:space="preserve">Office Scan </v>
       </c>
-      <c r="J32" s="114"/>
+      <c r="J32" s="117"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="130"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="111" t="s">
+      <c r="B33" s="149"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="160"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="112"/>
-      <c r="I33" s="113" t="s">
+      <c r="H33" s="119"/>
+      <c r="I33" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="114"/>
+      <c r="J33" s="117"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="115" t="s">
+      <c r="C35" s="143"/>
+      <c r="D35" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="116"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="143"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
       <c r="B36" s="8" t="s">
@@ -3614,44 +3613,44 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="118" t="s">
+      <c r="E45" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="119"/>
-      <c r="G45" s="118" t="s">
+      <c r="F45" s="121"/>
+      <c r="G45" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="119"/>
+      <c r="H45" s="121"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="120"/>
-      <c r="F46" s="121"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="121"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="123"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="123"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="122"/>
-      <c r="F47" s="123"/>
-      <c r="G47" s="122"/>
-      <c r="H47" s="123"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="125"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="102"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="103"/>
+      <c r="E48" s="164"/>
+      <c r="F48" s="165"/>
+      <c r="G48" s="164"/>
+      <c r="H48" s="165"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="104"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="105"/>
+      <c r="E49" s="166"/>
+      <c r="F49" s="167"/>
+      <c r="G49" s="166"/>
+      <c r="H49" s="167"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="106"/>
-      <c r="F50" s="107"/>
-      <c r="G50" s="106"/>
-      <c r="H50" s="107"/>
+      <c r="E50" s="160"/>
+      <c r="F50" s="162"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="162"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3659,25 +3658,16 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:C19"/>
-    <mergeCell ref="D9:J19"/>
-    <mergeCell ref="B21:C26"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="E48:F50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="E45:F47"/>
@@ -3692,16 +3682,25 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="E48:F50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="D9:J19"/>
+    <mergeCell ref="B21:C26"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
@@ -3727,8 +3726,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:I15"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3747,28 +3746,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="93"/>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="173" t="s">
+      <c r="C2" s="197" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -3796,16 +3795,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="186" t="str">
+      <c r="B5" s="204" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -3815,12 +3814,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="174" t="s">
+      <c r="F6" s="198" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="198"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -3841,12 +3840,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="174" t="s">
+      <c r="F8" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -3896,48 +3895,48 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="176"/>
-      <c r="D13" s="177" t="str">
+      <c r="C13" s="200"/>
+      <c r="D13" s="201" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="179"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="203"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="180" t="s">
+      <c r="B14" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="181"/>
-      <c r="D14" s="182" t="str">
+      <c r="C14" s="170"/>
+      <c r="D14" s="177" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="184"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="179"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="180" t="s">
+      <c r="B15" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="181"/>
+      <c r="C15" s="170"/>
       <c r="D15" s="246" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="185" t="s">
+      <c r="E15" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="181"/>
+      <c r="F15" s="170"/>
       <c r="G15" s="247" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
@@ -3946,110 +3945,110 @@
       <c r="I15" s="249"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="180" t="s">
+      <c r="B16" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="181"/>
+      <c r="C16" s="170"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="185" t="s">
+      <c r="E16" s="169" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="181"/>
-      <c r="G16" s="182" t="s">
+      <c r="F16" s="170"/>
+      <c r="G16" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="183"/>
-      <c r="I16" s="184"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="179"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="190" t="s">
+      <c r="B17" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="185" t="s">
+      <c r="C17" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="185" t="s">
+      <c r="D17" s="170"/>
+      <c r="E17" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="181"/>
+      <c r="F17" s="170"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="185" t="s">
+      <c r="H17" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="193"/>
+      <c r="I17" s="183"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="191"/>
-      <c r="C18" s="168" t="str">
+      <c r="B18" s="181"/>
+      <c r="C18" s="194" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="169"/>
-      <c r="E18" s="185" t="s">
+      <c r="D18" s="195"/>
+      <c r="E18" s="169" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="181"/>
+      <c r="F18" s="170"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="198"/>
-      <c r="I18" s="199"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="189"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="191"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="195"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="185"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="201"/>
+      <c r="H19" s="190"/>
+      <c r="I19" s="191"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="191"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="195"/>
+      <c r="B20" s="181"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="185"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="201"/>
+      <c r="H20" s="190"/>
+      <c r="I20" s="191"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="191"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="195"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="185"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="201"/>
+      <c r="H21" s="190"/>
+      <c r="I21" s="191"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="191"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="195"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="185"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="200"/>
-      <c r="I22" s="201"/>
+      <c r="H22" s="190"/>
+      <c r="I22" s="191"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="192"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="189"/>
-      <c r="E23" s="196"/>
-      <c r="F23" s="197"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="187"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="202"/>
-      <c r="I23" s="203"/>
+      <c r="H23" s="192"/>
+      <c r="I23" s="193"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4091,14 +4090,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="204" t="s">
+      <c r="F27" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="204" t="str">
+      <c r="G27" s="168" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="204"/>
+      <c r="H27" s="168"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4106,11 +4105,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="185" t="s">
+      <c r="F28" s="168"/>
+      <c r="G28" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="181"/>
+      <c r="H28" s="170"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4118,7 +4117,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="204"/>
+      <c r="F29" s="168"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4132,9 +4131,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="204"/>
-      <c r="G30" s="205"/>
-      <c r="H30" s="205"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4142,9 +4141,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="204"/>
-      <c r="G31" s="205"/>
-      <c r="H31" s="205"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4152,9 +4151,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="205"/>
-      <c r="H32" s="205"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="171"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4187,7 +4186,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9" ht="14.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="34" t="s">
         <v>45</v>
       </c>
@@ -4199,16 +4198,27 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="39" spans="2:9" ht="14.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B16:C16"/>
@@ -4225,22 +4235,11 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="H18:I23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4255,7 +4254,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15:I15"/>
     </sheetView>
   </sheetViews>
@@ -4275,28 +4274,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="93"/>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="196" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
-      <c r="H1" s="172"/>
-      <c r="I1" s="172"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="13"/>
-      <c r="C2" s="173" t="s">
+      <c r="C2" s="197" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="13"/>
@@ -4324,16 +4323,16 @@
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="186" t="str">
+      <c r="B5" s="204" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="205"/>
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="205"/>
+      <c r="H5" s="205"/>
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -4343,12 +4342,12 @@
       <c r="E6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="174" t="s">
+      <c r="F6" s="198" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="174"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="198"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="18"/>
@@ -4369,12 +4368,12 @@
       <c r="E8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="174" t="s">
+      <c r="F8" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
+      <c r="G8" s="198"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="18"/>
@@ -4423,48 +4422,48 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="199" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="176"/>
-      <c r="D13" s="177" t="str">
+      <c r="C13" s="200"/>
+      <c r="D13" s="201" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="179"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="203"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="180" t="s">
+      <c r="B14" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="181"/>
-      <c r="D14" s="182" t="str">
+      <c r="C14" s="170"/>
+      <c r="D14" s="177" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="184"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="179"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="180" t="s">
+      <c r="B15" s="176" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="181"/>
+      <c r="C15" s="170"/>
       <c r="D15" s="246" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="185" t="s">
+      <c r="E15" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="181"/>
+      <c r="F15" s="170"/>
       <c r="G15" s="247" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
@@ -4473,110 +4472,110 @@
       <c r="I15" s="249"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="180" t="s">
+      <c r="B16" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="181"/>
+      <c r="C16" s="170"/>
       <c r="D16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="185" t="s">
+      <c r="E16" s="169" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="181"/>
-      <c r="G16" s="182" t="s">
+      <c r="F16" s="170"/>
+      <c r="G16" s="177" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="183"/>
-      <c r="I16" s="184"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="179"/>
     </row>
     <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="190" t="s">
+      <c r="B17" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="185" t="s">
+      <c r="C17" s="169" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="185" t="s">
+      <c r="D17" s="170"/>
+      <c r="E17" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="181"/>
+      <c r="F17" s="170"/>
       <c r="G17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="185" t="s">
+      <c r="H17" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="193"/>
+      <c r="I17" s="183"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="191"/>
-      <c r="C18" s="168" t="str">
+      <c r="B18" s="181"/>
+      <c r="C18" s="194" t="str">
         <f>"①"&amp;記入!B10&amp;"の開発一式"</f>
         <v>①${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D18" s="169"/>
-      <c r="E18" s="185" t="s">
+      <c r="D18" s="195"/>
+      <c r="E18" s="169" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="181"/>
+      <c r="F18" s="170"/>
       <c r="G18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="198"/>
-      <c r="I18" s="199"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="189"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="191"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="195"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="185"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="201"/>
+      <c r="H19" s="190"/>
+      <c r="I19" s="191"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="191"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="195"/>
+      <c r="B20" s="181"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="185"/>
       <c r="G20" s="27"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="201"/>
+      <c r="H20" s="190"/>
+      <c r="I20" s="191"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="191"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="195"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="185"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="201"/>
+      <c r="H21" s="190"/>
+      <c r="I21" s="191"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="191"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="195"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="173"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="185"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="200"/>
-      <c r="I22" s="201"/>
+      <c r="H22" s="190"/>
+      <c r="I22" s="191"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1" thickBot="1">
-      <c r="B23" s="192"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="189"/>
-      <c r="E23" s="196"/>
-      <c r="F23" s="197"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="187"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="202"/>
-      <c r="I23" s="203"/>
+      <c r="H23" s="192"/>
+      <c r="I23" s="193"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="29"/>
@@ -4618,14 +4617,14 @@
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="29"/>
-      <c r="F27" s="204" t="s">
+      <c r="F27" s="168" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="204" t="str">
+      <c r="G27" s="168" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="204"/>
+      <c r="H27" s="168"/>
       <c r="I27" s="32"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
@@ -4633,11 +4632,11 @@
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="29"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="185" t="s">
+      <c r="F28" s="168"/>
+      <c r="G28" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="181"/>
+      <c r="H28" s="170"/>
       <c r="I28" s="32"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
@@ -4645,7 +4644,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="31"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="204"/>
+      <c r="F29" s="168"/>
       <c r="G29" s="26" t="s">
         <v>43</v>
       </c>
@@ -4659,9 +4658,9 @@
       <c r="C30" s="30"/>
       <c r="D30" s="31"/>
       <c r="E30" s="29"/>
-      <c r="F30" s="204"/>
-      <c r="G30" s="205"/>
-      <c r="H30" s="205"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31" spans="2:14">
@@ -4669,9 +4668,9 @@
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
-      <c r="F31" s="204"/>
-      <c r="G31" s="205"/>
-      <c r="H31" s="205"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
       <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:14">
@@ -4679,9 +4678,9 @@
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="205"/>
-      <c r="H32" s="205"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="171"/>
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9">
@@ -4714,7 +4713,7 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="2:9" ht="14.25">
+    <row r="36" spans="2:9">
       <c r="B36" s="34" t="s">
         <v>49</v>
       </c>
@@ -4726,11 +4725,32 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="39" spans="2:9" ht="14.25">
+    <row r="39" spans="2:9">
       <c r="B39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H18:I23"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="F6:I6"/>
@@ -4747,27 +4767,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4804,55 +4803,55 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1" thickBot="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="216" t="s">
+      <c r="C3" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="217"/>
+      <c r="D3" s="207"/>
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="219"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="209"/>
       <c r="E4" s="39"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="220" t="str">
+      <c r="C5" s="210" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="221"/>
+      <c r="D5" s="211"/>
       <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="223"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="213"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="214" t="str">
+      <c r="C7" s="224" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="215"/>
+      <c r="D7" s="225"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="215"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="225"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="208" t="str">
+      <c r="C9" s="218" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="209"/>
+      <c r="D9" s="219"/>
       <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
@@ -4868,34 +4867,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="210" t="s">
+      <c r="C11" s="220" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="211"/>
+      <c r="D11" s="221"/>
       <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="212" t="str">
+      <c r="C12" s="222" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="213"/>
+      <c r="D12" s="223"/>
       <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1" thickBot="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="224" t="str">
+      <c r="C13" s="214" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="225"/>
+      <c r="D13" s="215"/>
       <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="206"/>
-      <c r="D14" s="207"/>
+      <c r="C14" s="216"/>
+      <c r="D14" s="217"/>
       <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -4921,16 +4920,16 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:D8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/napinshu_rmb.xlsx
@@ -5,28 +5,26 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud0522\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\03_release\newparkcloudRELEASE\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="6975" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="6975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="1" r:id="rId1"/>
     <sheet name="出荷判定書" sheetId="3" r:id="rId2"/>
-    <sheet name="納品明細書兼物品受領書（正）" sheetId="5" r:id="rId3"/>
-    <sheet name="納品明細書兼物品受領書（副）" sheetId="7" r:id="rId4"/>
-    <sheet name="CDラベル" sheetId="2" state="hidden" r:id="rId5"/>
-    <sheet name="INVOICE" sheetId="8" state="hidden" r:id="rId6"/>
+    <sheet name="納品明細書兼物品受領書" sheetId="5" r:id="rId3"/>
+    <sheet name="CDラベル" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="INVOICE" sheetId="8" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">CDラベル!$A$1:$F$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">INVOICE!$A$1:$J$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">CDラベル!$A$1:$F$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">INVOICE!$A$1:$J$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">出荷判定書!$A$1:$K$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'納品明細書兼物品受領書（副）'!$A$1:$J$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'納品明細書兼物品受領書（正）'!$A$1:$J$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">納品明細書兼物品受領書!$A$1:$J$36</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -96,30 +94,8 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>DONG</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-          </rPr>
-          <t>jx:area(lastCell="J36")</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="140">
   <si>
     <t>■以下の内容は契約管理ツールで自動生成</t>
   </si>
@@ -336,9 +312,6 @@
 責任者</t>
   </si>
   <si>
-    <t>納品明細書（兼）物品受領書（正）</t>
-  </si>
-  <si>
     <t>（本書は物件の納入日に依頼元へご提出下さい。）</t>
   </si>
   <si>
@@ -428,15 +401,6 @@
   </si>
   <si>
     <t>　　 担当</t>
-  </si>
-  <si>
-    <t>ドメイン側保管</t>
-  </si>
-  <si>
-    <t>納品明細書（兼）物品受領書（副）</t>
-  </si>
-  <si>
-    <t>PSDCD側保管</t>
   </si>
   <si>
     <t>納　　入　　物　　品</t>
@@ -562,7 +526,13 @@
   </si>
   <si>
     <t>①${na.pjnameenglish}の開発一式</t>
-    <phoneticPr fontId="31" type="noConversion"/>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>納品明細書（兼）物品受領書はPDFがオリジナルデータであり、紙は送付しません。</t>
+  </si>
+  <si>
+    <t>納品明細書（兼）物品受領書</t>
   </si>
 </sst>
 </file>
@@ -570,11 +540,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="178" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -583,7 +553,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -688,13 +658,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="23"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="HGP創英角ｺﾞｼｯｸUB"/>
       <family val="3"/>
@@ -765,6 +728,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="23"/>
+      <name val="ＭＳ 明朝"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="21"/>
+      <name val="ＭＳ 明朝"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1361,7 +1336,7 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="249">
@@ -1376,7 +1351,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1451,13 +1426,13 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1468,7 +1443,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1483,7 +1458,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1510,7 +1485,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="31" fontId="14" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1536,7 +1511,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1553,303 +1527,408 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="28" fillId="3" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="27" fillId="3" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="31" fontId="28" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="28" fillId="7" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="7" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="28" fillId="3" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="3" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="28" fillId="7" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="27" fillId="7" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="20" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1863,113 +1942,35 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="14" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="14" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="14" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1999,35 +2000,23 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2041,23 +2030,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2122,7 +2097,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2157,7 +2132,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2369,403 +2344,403 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" style="69" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" style="68" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="D1" s="99" t="s">
+      <c r="B1" s="97"/>
+      <c r="D1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="100"/>
+      <c r="E1" s="99"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
-    </row>
-    <row r="4" spans="1:5" s="78" customFormat="1">
-      <c r="A4" s="79" t="s">
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
+    </row>
+    <row r="4" spans="1:5" s="77" customFormat="1">
+      <c r="A4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="84" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="102"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="102"/>
-    </row>
-    <row r="6" spans="1:5" s="78" customFormat="1">
-      <c r="A6" s="85" t="s">
+      <c r="D5" s="100"/>
+      <c r="E5" s="101"/>
+    </row>
+    <row r="6" spans="1:5" s="77" customFormat="1">
+      <c r="A6" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="84" t="s">
+      <c r="B6" s="85"/>
+      <c r="C6" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="102"/>
-    </row>
-    <row r="7" spans="1:5" s="78" customFormat="1">
-      <c r="A7" s="85" t="s">
+      <c r="D6" s="100"/>
+      <c r="E6" s="101"/>
+    </row>
+    <row r="7" spans="1:5" s="77" customFormat="1">
+      <c r="A7" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="84" t="s">
+      <c r="B7" s="85"/>
+      <c r="C7" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="102"/>
-    </row>
-    <row r="8" spans="1:5" s="78" customFormat="1">
-      <c r="A8" s="79" t="s">
+      <c r="D7" s="100"/>
+      <c r="E7" s="101"/>
+    </row>
+    <row r="8" spans="1:5" s="77" customFormat="1">
+      <c r="A8" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84" t="s">
+      <c r="B8" s="82"/>
+      <c r="C8" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="102"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="101"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="102"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="101"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="102"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="101"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="101"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="101"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="84" t="s">
+      <c r="B19" s="90"/>
+      <c r="C19" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="101"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="101"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="84" t="s">
+      <c r="B21" s="92"/>
+      <c r="C21" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="101"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="84" t="s">
+      <c r="B22" s="92"/>
+      <c r="C22" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="101"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="102"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="101"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="101"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="80" t="str">
+      <c r="B25" s="79" t="str">
         <f>"GF-"&amp;B12</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="101"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="101"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
     </row>
     <row r="28" spans="1:5" ht="13.5">
-      <c r="A28" s="97"/>
+      <c r="A28" s="96"/>
     </row>
     <row r="29" spans="1:5" ht="13.5">
-      <c r="A29" s="97"/>
+      <c r="A29" s="96"/>
     </row>
     <row r="30" spans="1:5" ht="13.5">
-      <c r="A30" s="97"/>
+      <c r="A30" s="96"/>
     </row>
     <row r="31" spans="1:5" ht="13.5">
-      <c r="A31" s="97"/>
+      <c r="A31" s="96"/>
     </row>
     <row r="32" spans="1:5" ht="13.5">
-      <c r="A32" s="97"/>
+      <c r="A32" s="96"/>
     </row>
     <row r="33" spans="1:1" ht="13.5">
-      <c r="A33" s="97"/>
+      <c r="A33" s="96"/>
     </row>
     <row r="34" spans="1:1" ht="13.5">
-      <c r="A34" s="97"/>
+      <c r="A34" s="96"/>
     </row>
     <row r="35" spans="1:1" ht="13.5">
-      <c r="A35" s="97"/>
+      <c r="A35" s="96"/>
     </row>
     <row r="36" spans="1:1" ht="13.5">
-      <c r="A36" s="97"/>
+      <c r="A36" s="96"/>
     </row>
     <row r="37" spans="1:1" ht="13.5">
-      <c r="A37" s="97"/>
+      <c r="A37" s="96"/>
     </row>
     <row r="38" spans="1:1" ht="13.5">
-      <c r="A38" s="97"/>
+      <c r="A38" s="96"/>
     </row>
     <row r="39" spans="1:1" ht="13.5">
-      <c r="A39" s="97"/>
+      <c r="A39" s="96"/>
     </row>
     <row r="40" spans="1:1" ht="13.5">
-      <c r="A40" s="97"/>
+      <c r="A40" s="96"/>
     </row>
     <row r="41" spans="1:1" ht="13.5">
-      <c r="A41" s="97"/>
+      <c r="A41" s="96"/>
     </row>
     <row r="42" spans="1:1" ht="13.5">
-      <c r="A42" s="97"/>
+      <c r="A42" s="96"/>
     </row>
     <row r="43" spans="1:1" ht="13.5">
-      <c r="A43" s="97"/>
+      <c r="A43" s="96"/>
     </row>
     <row r="44" spans="1:1" ht="13.5">
-      <c r="A44" s="97"/>
+      <c r="A44" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E27"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -2778,490 +2753,490 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:J21"/>
+      <selection activeCell="D9" sqref="D9:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="72" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="72"/>
-    <col min="8" max="8" width="14" style="72" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="72"/>
-    <col min="10" max="10" width="15.5703125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="71" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="71"/>
+    <col min="8" max="8" width="14" style="71" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="71"/>
+    <col min="10" max="10" width="15.5703125" style="71" customWidth="1"/>
     <col min="11" max="11" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="43"/>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1"/>
     <row r="3" spans="1:10">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="106" t="str">
+      <c r="C3" s="167" t="str">
         <f>記入!B9</f>
         <v>${na.deployment}</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="108"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="169"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111" t="s">
+      <c r="C5" s="170"/>
+      <c r="D5" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="113"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
+      <c r="G5" s="172"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="173"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115" t="str">
+      <c r="C6" s="153"/>
+      <c r="D6" s="174" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="176"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="118" t="str">
+      <c r="C7" s="153"/>
+      <c r="D7" s="162" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="75" t="s">
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="120" t="str">
+      <c r="H7" s="155" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="I7" s="120"/>
-      <c r="J7" s="121"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="164"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="122" t="str">
+      <c r="C8" s="153"/>
+      <c r="D8" s="140" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="E8" s="123"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="125" t="s">
+      <c r="E8" s="165"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="126"/>
-      <c r="I8" s="122" t="s">
+      <c r="H8" s="139"/>
+      <c r="I8" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="124"/>
+      <c r="J8" s="141"/>
     </row>
     <row r="9" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="151"/>
-      <c r="D9" s="169" t="s">
+      <c r="C9" s="105"/>
+      <c r="D9" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="171"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="112"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B10" s="152"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="174"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="115"/>
     </row>
     <row r="11" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B11" s="152"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="174"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="115"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B12" s="152"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="174"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="115"/>
     </row>
     <row r="13" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B13" s="152"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="174"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B14" s="152"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="174"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="115"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B15" s="152"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="174"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="115"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" customHeight="1">
-      <c r="B16" s="152"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="174"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="115"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B17" s="152"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="174"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="115"/>
     </row>
     <row r="18" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B18" s="152"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="174"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="115"/>
     </row>
     <row r="19" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B19" s="154"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="177"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
     </row>
     <row r="21" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B21" s="156" t="s">
+      <c r="B21" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="151"/>
-      <c r="D21" s="127" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="129"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="158" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="160"/>
     </row>
     <row r="22" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B22" s="152"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="132"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="151"/>
     </row>
     <row r="23" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B23" s="152"/>
-      <c r="C23" s="153"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="132"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="151"/>
     </row>
     <row r="24" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B24" s="152"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="132"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="151"/>
     </row>
     <row r="25" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B25" s="152"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="132"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="151"/>
     </row>
     <row r="26" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B26" s="154"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="132"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="151"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="109" t="s">
+      <c r="B27" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="134" t="str">
+      <c r="C27" s="153"/>
+      <c r="D27" s="154" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="136"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="157"/>
     </row>
     <row r="28" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
     </row>
     <row r="29" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B29" s="156" t="s">
+      <c r="B29" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="157"/>
-      <c r="D29" s="125" t="s">
+      <c r="C29" s="126"/>
+      <c r="D29" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="122" t="str">
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="140" t="str">
         <f>記入!B25</f>
         <v>GF-${na.contractnumber}</v>
       </c>
-      <c r="J29" s="124"/>
+      <c r="J29" s="141"/>
     </row>
     <row r="30" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B30" s="152"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="125" t="s">
+      <c r="B30" s="106"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="122" t="s">
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="124"/>
+      <c r="J30" s="141"/>
     </row>
     <row r="31" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B31" s="159"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="162" t="s">
+      <c r="B31" s="128"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="163"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="125" t="s">
+      <c r="E31" s="132"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="126"/>
-      <c r="I31" s="122" t="str">
+      <c r="H31" s="139"/>
+      <c r="I31" s="140" t="str">
         <f>記入!B24</f>
         <v>${na.loadingjudge}</v>
       </c>
-      <c r="J31" s="124"/>
+      <c r="J31" s="141"/>
     </row>
     <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="159"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="125" t="s">
+      <c r="B32" s="128"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="126"/>
-      <c r="I32" s="140" t="str">
+      <c r="H32" s="139"/>
+      <c r="I32" s="149" t="str">
         <f>記入!B26</f>
         <v xml:space="preserve">Office Scan </v>
       </c>
-      <c r="J32" s="124"/>
+      <c r="J32" s="141"/>
     </row>
     <row r="33" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B33" s="160"/>
-      <c r="C33" s="161"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="125" t="s">
+      <c r="B33" s="129"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="H33" s="126"/>
-      <c r="I33" s="122" t="s">
+      <c r="H33" s="139"/>
+      <c r="I33" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="J33" s="124"/>
+      <c r="J33" s="141"/>
     </row>
     <row r="34" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="131"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="131"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
     </row>
     <row r="35" spans="2:10" ht="18.75">
-      <c r="B35" s="141" t="s">
+      <c r="B35" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="142"/>
-      <c r="D35" s="141" t="s">
+      <c r="C35" s="144"/>
+      <c r="D35" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="142"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="144"/>
     </row>
     <row r="36" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
     </row>
     <row r="37" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="76" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3271,66 +3246,66 @@
     <row r="41" spans="2:10" ht="13.5" customHeight="1"/>
     <row r="42" spans="2:10" ht="13.5" customHeight="1"/>
     <row r="43" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
     </row>
     <row r="44" spans="2:10" ht="13.5" customHeight="1">
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
     </row>
     <row r="45" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E45" s="150" t="s">
+      <c r="E45" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="F45" s="151"/>
-      <c r="G45" s="150" t="s">
+      <c r="F45" s="105"/>
+      <c r="G45" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="H45" s="151"/>
+      <c r="H45" s="105"/>
     </row>
     <row r="46" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E46" s="152"/>
-      <c r="F46" s="153"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="153"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="107"/>
     </row>
     <row r="47" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E47" s="154"/>
-      <c r="F47" s="155"/>
-      <c r="G47" s="154"/>
-      <c r="H47" s="155"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="109"/>
     </row>
     <row r="48" spans="2:10" ht="13.5" customHeight="1">
-      <c r="E48" s="144"/>
-      <c r="F48" s="145"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="145"/>
+      <c r="E48" s="119"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="119"/>
+      <c r="H48" s="120"/>
     </row>
     <row r="49" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E49" s="146"/>
-      <c r="F49" s="147"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="147"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="121"/>
+      <c r="H49" s="122"/>
     </row>
     <row r="50" spans="5:8" ht="13.5" customHeight="1">
-      <c r="E50" s="148"/>
-      <c r="F50" s="149"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="149"/>
+      <c r="E50" s="123"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="124"/>
     </row>
     <row r="51" spans="5:8" ht="13.5" customHeight="1"/>
     <row r="52" spans="5:8" ht="13.5" customHeight="1"/>
@@ -3338,6 +3313,33 @@
     <row r="54" spans="5:8" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D26:J26"/>
     <mergeCell ref="B9:C19"/>
     <mergeCell ref="D9:J19"/>
     <mergeCell ref="B21:C26"/>
@@ -3354,35 +3356,8 @@
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="D30:H30"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:J6"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
       <formula1>"開発１G,開発２G,SSDC,品質保証G"</formula1>
@@ -3405,8 +3380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3425,28 +3400,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="43"/>
-      <c r="B1" s="178" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
+      <c r="B1" s="248" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
       <c r="B2" s="44"/>
-      <c r="C2" s="179" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
+      <c r="C2" s="213" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="213"/>
+      <c r="E2" s="213"/>
+      <c r="F2" s="213"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1">
       <c r="B3" s="44"/>
@@ -3455,7 +3430,7 @@
       <c r="E3" s="45"/>
       <c r="F3" s="45"/>
       <c r="G3" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3" s="46" t="str">
         <f>記入!B16</f>
@@ -3474,16 +3449,16 @@
       <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="180" t="str">
+      <c r="B5" s="214" t="str">
         <f>記入!B2&amp;"　御中"</f>
         <v>${na.depositjapanese}　御中</v>
       </c>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="215"/>
       <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1">
@@ -3491,14 +3466,14 @@
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
       <c r="E6" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="182" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="216"/>
+      <c r="I6" s="216"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1">
       <c r="B7" s="48"/>
@@ -3506,25 +3481,25 @@
       <c r="D7" s="45"/>
       <c r="E7" s="51"/>
       <c r="F7" s="52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
-      <c r="I7" s="67"/>
+      <c r="I7" s="66"/>
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1">
       <c r="B8" s="48"/>
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
       <c r="E8" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="216" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="182" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="216"/>
+      <c r="I8" s="216"/>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="B9" s="48"/>
@@ -3534,12 +3509,12 @@
       <c r="F9" s="49"/>
       <c r="G9" s="53"/>
       <c r="H9" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9" s="54"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A10" s="71"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="48"/>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
@@ -3547,12 +3522,12 @@
       <c r="F10" s="49"/>
       <c r="G10" s="53"/>
       <c r="H10" s="54"/>
-      <c r="I10" s="68"/>
+      <c r="I10" s="67"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1">
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
@@ -3564,7 +3539,7 @@
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
       <c r="B12" s="48"/>
       <c r="C12" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
@@ -3574,163 +3549,163 @@
       <c r="I12" s="54"/>
     </row>
     <row r="13" spans="1:9" ht="58.5" customHeight="1">
-      <c r="B13" s="183" t="s">
+      <c r="B13" s="205" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="206"/>
+      <c r="D13" s="207" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="208"/>
+      <c r="F13" s="208"/>
+      <c r="G13" s="208"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="209"/>
+    </row>
+    <row r="14" spans="1:9" ht="21.75" customHeight="1">
+      <c r="B14" s="200" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="184"/>
-      <c r="D13" s="185" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="187"/>
-    </row>
-    <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="188" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="189"/>
-      <c r="D14" s="190" t="str">
+      <c r="C14" s="179"/>
+      <c r="D14" s="201" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="192"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="203"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="188" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="189"/>
+      <c r="B15" s="200" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="179"/>
       <c r="D15" s="55" t="str">
         <f>記入!B17</f>
         <v>${na.deliverydate}</v>
       </c>
-      <c r="E15" s="193" t="s">
+      <c r="E15" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="189"/>
-      <c r="G15" s="194" t="str">
+      <c r="F15" s="179"/>
+      <c r="G15" s="210" t="str">
         <f>記入!B18</f>
         <v>${na.completiondate}</v>
       </c>
-      <c r="H15" s="195"/>
-      <c r="I15" s="196"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="212"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="188" t="s">
+      <c r="B16" s="200" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="179"/>
+      <c r="D16" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="189"/>
-      <c r="D16" s="56" t="s">
+      <c r="E16" s="178" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="193" t="s">
+      <c r="F16" s="179"/>
+      <c r="G16" s="201" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="189"/>
-      <c r="G16" s="190" t="s">
+      <c r="H16" s="202"/>
+      <c r="I16" s="203"/>
+    </row>
+    <row r="17" spans="2:14" ht="21.75" customHeight="1">
+      <c r="B17" s="180" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="191"/>
-      <c r="I16" s="192"/>
-    </row>
-    <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="209" t="s">
+      <c r="C17" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="193" t="s">
+      <c r="D17" s="179"/>
+      <c r="E17" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="189"/>
-      <c r="E17" s="193" t="s">
+      <c r="F17" s="179"/>
+      <c r="G17" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="189"/>
-      <c r="G17" s="56" t="s">
+      <c r="H17" s="178" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="193" t="s">
+      <c r="I17" s="204"/>
+      <c r="K17" s="68"/>
+    </row>
+    <row r="18" spans="2:14" ht="57.75" customHeight="1">
+      <c r="B18" s="181"/>
+      <c r="C18" s="198" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="199"/>
+      <c r="E18" s="178" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="197"/>
-      <c r="K17" s="69"/>
-    </row>
-    <row r="18" spans="2:14" ht="57.75" customHeight="1">
-      <c r="B18" s="210"/>
-      <c r="C18" s="198" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="199"/>
-      <c r="E18" s="193" t="s">
+      <c r="F18" s="179"/>
+      <c r="G18" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="189"/>
-      <c r="G18" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="213"/>
-      <c r="I18" s="214"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="185"/>
     </row>
     <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="210"/>
-      <c r="C19" s="200"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="203"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="193"/>
       <c r="G19" s="57"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="216"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="187"/>
     </row>
     <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="210"/>
-      <c r="C20" s="200"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="203"/>
+      <c r="B20" s="181"/>
+      <c r="C20" s="190"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="193"/>
       <c r="G20" s="57"/>
-      <c r="H20" s="215"/>
-      <c r="I20" s="216"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="187"/>
     </row>
     <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="210"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="201"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="203"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="190"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="193"/>
       <c r="G21" s="57"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="216"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="187"/>
     </row>
     <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="210"/>
-      <c r="C22" s="200"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="203"/>
+      <c r="B22" s="181"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="191"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="193"/>
       <c r="G22" s="57"/>
-      <c r="H22" s="215"/>
-      <c r="I22" s="216"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="187"/>
     </row>
     <row r="23" spans="2:14" ht="27" customHeight="1">
-      <c r="B23" s="211"/>
-      <c r="C23" s="204"/>
-      <c r="D23" s="205"/>
-      <c r="E23" s="206"/>
-      <c r="F23" s="207"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="195"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="197"/>
       <c r="G23" s="58"/>
-      <c r="H23" s="217"/>
-      <c r="I23" s="218"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="189"/>
     </row>
     <row r="24" spans="2:14" ht="21.75" customHeight="1">
       <c r="B24" s="59"/>
       <c r="C24" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="61"/>
       <c r="E24" s="59"/>
@@ -3738,12 +3713,12 @@
       <c r="G24" s="61"/>
       <c r="H24" s="59"/>
       <c r="I24" s="59"/>
-      <c r="N24" s="66"/>
+      <c r="N24" s="65"/>
     </row>
     <row r="25" spans="2:14" ht="21.75" customHeight="1">
       <c r="B25" s="59"/>
       <c r="C25" s="60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="61"/>
       <c r="E25" s="59"/>
@@ -3767,50 +3742,50 @@
       <c r="C27" s="60"/>
       <c r="D27" s="61"/>
       <c r="E27" s="59"/>
-      <c r="F27" s="208" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="208" t="str">
+      <c r="F27" s="177" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="177" t="str">
         <f>記入!B5</f>
         <v>${na.entrustment}</v>
       </c>
-      <c r="H27" s="208"/>
-      <c r="I27" s="70"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="69"/>
     </row>
     <row r="28" spans="2:14" ht="21.75" customHeight="1">
       <c r="B28" s="59"/>
       <c r="C28" s="60"/>
       <c r="D28" s="61"/>
       <c r="E28" s="59"/>
-      <c r="F28" s="208"/>
-      <c r="G28" s="193" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="189"/>
-      <c r="I28" s="70"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="178" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="179"/>
+      <c r="I28" s="69"/>
     </row>
     <row r="29" spans="2:14" ht="21.75" customHeight="1">
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
       <c r="E29" s="59"/>
-      <c r="F29" s="208"/>
+      <c r="F29" s="177"/>
       <c r="G29" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="70"/>
+      <c r="I29" s="69"/>
     </row>
     <row r="30" spans="2:14" ht="21.75" customHeight="1">
       <c r="B30" s="59"/>
       <c r="C30" s="60"/>
       <c r="D30" s="61"/>
       <c r="E30" s="59"/>
-      <c r="F30" s="208"/>
-      <c r="G30" s="212"/>
-      <c r="H30" s="212"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
       <c r="I30" s="59"/>
     </row>
     <row r="31" spans="2:14">
@@ -3818,9 +3793,9 @@
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
       <c r="E31" s="64"/>
-      <c r="F31" s="208"/>
-      <c r="G31" s="212"/>
-      <c r="H31" s="212"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
       <c r="I31" s="64"/>
     </row>
     <row r="32" spans="2:14">
@@ -3828,9 +3803,9 @@
       <c r="C32" s="64"/>
       <c r="D32" s="64"/>
       <c r="E32" s="64"/>
-      <c r="F32" s="208"/>
-      <c r="G32" s="212"/>
-      <c r="H32" s="212"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
       <c r="I32" s="64"/>
     </row>
     <row r="33" spans="2:9">
@@ -3864,8 +3839,8 @@
       <c r="I35" s="64"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="65" t="s">
-        <v>102</v>
+      <c r="B36" s="247" t="s">
+        <v>138</v>
       </c>
       <c r="C36" s="64"/>
       <c r="D36" s="64"/>
@@ -3876,10 +3851,31 @@
       <c r="I36" s="64"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="66"/>
+      <c r="B39" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="B17:B23"/>
@@ -3896,29 +3892,8 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.98425196850393704" bottom="0.39370078740157499" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -3927,530 +3902,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="30.75" customHeight="1">
-      <c r="A1" s="43"/>
-      <c r="B1" s="178" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-    </row>
-    <row r="2" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B2" s="44"/>
-      <c r="C2" s="179" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-    </row>
-    <row r="3" spans="1:9" ht="21" customHeight="1">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="46" t="str">
-        <f>記入!B16</f>
-        <v>${na.deliveryfinshdate}</v>
-      </c>
-      <c r="I3" s="64"/>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="64"/>
-    </row>
-    <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="B5" s="180" t="str">
-        <f>記入!B2&amp;"　御中"</f>
-        <v>${na.depositjapanese}　御中</v>
-      </c>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="45"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1">
-      <c r="B6" s="48"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="182" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1">
-      <c r="B7" s="48"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="67"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.25" customHeight="1">
-      <c r="B8" s="48"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="182" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1">
-      <c r="B9" s="48"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="54"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B10" s="48"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="68"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B11" s="48"/>
-      <c r="C11" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B12" s="48"/>
-      <c r="C12" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54"/>
-    </row>
-    <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="B13" s="183" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="184"/>
-      <c r="D13" s="185" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="187"/>
-    </row>
-    <row r="14" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B14" s="188" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="189"/>
-      <c r="D14" s="190" t="str">
-        <f>記入!B13</f>
-        <v>${na.claimnumber}</v>
-      </c>
-      <c r="E14" s="191"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="192"/>
-    </row>
-    <row r="15" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B15" s="188" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="189"/>
-      <c r="D15" s="55" t="str">
-        <f>記入!B17</f>
-        <v>${na.deliverydate}</v>
-      </c>
-      <c r="E15" s="193" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="189"/>
-      <c r="G15" s="194" t="str">
-        <f>記入!B18</f>
-        <v>${na.completiondate}</v>
-      </c>
-      <c r="H15" s="195"/>
-      <c r="I15" s="196"/>
-    </row>
-    <row r="16" spans="1:9" ht="21.75" customHeight="1">
-      <c r="B16" s="188" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="189"/>
-      <c r="D16" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="193" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="189"/>
-      <c r="G16" s="190" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="191"/>
-      <c r="I16" s="192"/>
-    </row>
-    <row r="17" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B17" s="209" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="193" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="189"/>
-      <c r="E17" s="193" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="189"/>
-      <c r="G17" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="193" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="197"/>
-      <c r="K17" s="69"/>
-    </row>
-    <row r="18" spans="2:14" ht="52.5" customHeight="1">
-      <c r="B18" s="210"/>
-      <c r="C18" s="198" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="199"/>
-      <c r="E18" s="193" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="189"/>
-      <c r="G18" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18" s="213"/>
-      <c r="I18" s="214"/>
-    </row>
-    <row r="19" spans="2:14" ht="27" customHeight="1">
-      <c r="B19" s="210"/>
-      <c r="C19" s="200"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="216"/>
-    </row>
-    <row r="20" spans="2:14" ht="27" customHeight="1">
-      <c r="B20" s="210"/>
-      <c r="C20" s="200"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="215"/>
-      <c r="I20" s="216"/>
-    </row>
-    <row r="21" spans="2:14" ht="27" customHeight="1">
-      <c r="B21" s="210"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="201"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="216"/>
-    </row>
-    <row r="22" spans="2:14" ht="27" customHeight="1">
-      <c r="B22" s="210"/>
-      <c r="C22" s="200"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="215"/>
-      <c r="I22" s="216"/>
-    </row>
-    <row r="23" spans="2:14" ht="27" customHeight="1">
-      <c r="B23" s="211"/>
-      <c r="C23" s="204"/>
-      <c r="D23" s="205"/>
-      <c r="E23" s="206"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="217"/>
-      <c r="I23" s="218"/>
-    </row>
-    <row r="24" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B24" s="59"/>
-      <c r="C24" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="N24" s="66"/>
-    </row>
-    <row r="25" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B25" s="59"/>
-      <c r="C25" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-    </row>
-    <row r="26" spans="2:14" ht="15.75" customHeight="1">
-      <c r="B26" s="59"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-    </row>
-    <row r="27" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B27" s="59"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="208" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="208" t="str">
-        <f>記入!B5</f>
-        <v>${na.entrustment}</v>
-      </c>
-      <c r="H27" s="208"/>
-      <c r="I27" s="70"/>
-    </row>
-    <row r="28" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="208"/>
-      <c r="G28" s="193" t="s">
-        <v>99</v>
-      </c>
-      <c r="H28" s="189"/>
-      <c r="I28" s="70"/>
-    </row>
-    <row r="29" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B29" s="59"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="208"/>
-      <c r="G29" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="I29" s="70"/>
-    </row>
-    <row r="30" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B30" s="59"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="208"/>
-      <c r="G30" s="212"/>
-      <c r="H30" s="212"/>
-      <c r="I30" s="59"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="208"/>
-      <c r="G31" s="212"/>
-      <c r="H31" s="212"/>
-      <c r="I31" s="64"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="208"/>
-      <c r="G32" s="212"/>
-      <c r="H32" s="212"/>
-      <c r="I32" s="64"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="66"/>
-    </row>
-  </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H18:I23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F8:I8"/>
-  </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
-  <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.98425196850393704" bottom="0.39370078740157499" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E46"/>
   <sheetViews>
@@ -4476,61 +3927,61 @@
     </row>
     <row r="3" spans="2:5" ht="24" customHeight="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="219" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="220"/>
+      <c r="C3" s="227" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="228"/>
       <c r="E3" s="37"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1">
       <c r="B4" s="36"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="222"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="230"/>
       <c r="E4" s="37"/>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1">
       <c r="B5" s="36"/>
-      <c r="C5" s="223" t="str">
+      <c r="C5" s="231" t="str">
         <f>記入!B2</f>
         <v>${na.depositjapanese}</v>
       </c>
-      <c r="D5" s="224"/>
+      <c r="D5" s="232"/>
       <c r="E5" s="37"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
       <c r="B6" s="36"/>
-      <c r="C6" s="225"/>
-      <c r="D6" s="226"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="234"/>
       <c r="E6" s="37"/>
     </row>
     <row r="7" spans="2:5" ht="22.5" customHeight="1">
       <c r="B7" s="36"/>
-      <c r="C7" s="237" t="str">
+      <c r="C7" s="225" t="str">
         <f>記入!B10</f>
         <v>${na.pjnamejapanese}</v>
       </c>
-      <c r="D7" s="238"/>
+      <c r="D7" s="226"/>
       <c r="E7" s="37"/>
     </row>
     <row r="8" spans="2:5" ht="22.5" customHeight="1">
       <c r="B8" s="36"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="238"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="226"/>
       <c r="E8" s="37"/>
     </row>
     <row r="9" spans="2:5" ht="17.25" customHeight="1">
       <c r="B9" s="36"/>
-      <c r="C9" s="227" t="str">
+      <c r="C9" s="235" t="str">
         <f>"（"&amp;記入!B13&amp;"）"</f>
         <v>（${na.claimnumber}）</v>
       </c>
-      <c r="D9" s="228"/>
+      <c r="D9" s="236"/>
       <c r="E9" s="37"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" customHeight="1">
       <c r="B10" s="36"/>
       <c r="C10" s="38" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D10" s="39" t="str">
         <f>記入!B17</f>
@@ -4540,34 +3991,34 @@
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
       <c r="B11" s="36"/>
-      <c r="C11" s="229" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="230"/>
+      <c r="C11" s="217" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="218"/>
       <c r="E11" s="37"/>
     </row>
     <row r="12" spans="2:5" ht="117" customHeight="1">
       <c r="B12" s="36"/>
-      <c r="C12" s="231" t="str">
+      <c r="C12" s="219" t="str">
         <f>記入!B10&amp;"の開発一式"</f>
         <v>${na.pjnamejapanese}の開発一式</v>
       </c>
-      <c r="D12" s="232"/>
+      <c r="D12" s="220"/>
       <c r="E12" s="37"/>
     </row>
     <row r="13" spans="2:5" ht="37.5" customHeight="1">
       <c r="B13" s="36"/>
-      <c r="C13" s="233" t="str">
+      <c r="C13" s="221" t="str">
         <f>記入!B27</f>
         <v>パナソニックソフトウェア開発センター大連（有）（PSDCD）</v>
       </c>
-      <c r="D13" s="234"/>
+      <c r="D13" s="222"/>
       <c r="E13" s="37"/>
     </row>
     <row r="14" spans="2:5" ht="18" customHeight="1">
       <c r="B14" s="36"/>
-      <c r="C14" s="235"/>
-      <c r="D14" s="236"/>
+      <c r="C14" s="223"/>
+      <c r="D14" s="224"/>
       <c r="E14" s="37"/>
     </row>
     <row r="15" spans="2:5" ht="9.6" customHeight="1">
@@ -4593,25 +4044,25 @@
     <row r="46" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C7:D8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.55118110236220497" right="0.59055118110236204" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I25"/>
   <sheetViews>
@@ -4619,7 +4070,7 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
@@ -4635,99 +4086,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31.5">
-      <c r="B1" s="239" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
+      <c r="B1" s="243" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="243"/>
     </row>
     <row r="2" spans="2:9" ht="31.5">
-      <c r="B2" s="239" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
+      <c r="B2" s="243" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="243"/>
+      <c r="G2" s="243"/>
+      <c r="H2" s="243"/>
+      <c r="I2" s="243"/>
     </row>
     <row r="3" spans="2:9" ht="33.75" customHeight="1">
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
+      <c r="B3" s="244"/>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
       <c r="I3" s="28"/>
     </row>
     <row r="4" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B4" s="241" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="242" t="str">
+      <c r="B4" s="245" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="245"/>
+      <c r="D4" s="245"/>
+      <c r="E4" s="246" t="str">
         <f>記入!B3</f>
         <v>${na.depositenglish}</v>
       </c>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
+      <c r="F4" s="246"/>
+      <c r="G4" s="246"/>
+      <c r="H4" s="246"/>
+      <c r="I4" s="246"/>
     </row>
     <row r="5" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B5" s="243" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
+      <c r="B5" s="241" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
       <c r="E5" s="2" t="str">
         <f>記入!B13</f>
         <v>${na.claimnumber}</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="243" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="243"/>
+      <c r="G5" s="241" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="241"/>
       <c r="I5" s="2" t="str">
         <f>記入!B12</f>
         <v>${na.contractnumber}</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B6" s="243" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
+      <c r="B6" s="241" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
       <c r="E6" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="243" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" s="243"/>
+      <c r="G6" s="241" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="241"/>
       <c r="I6" s="29" t="str">
         <f>記入!B23</f>
         <v>${na.toto}</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" customHeight="1">
-      <c r="B7" s="244" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="244"/>
-      <c r="D7" s="244"/>
+      <c r="B7" s="242" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="242"/>
+      <c r="D7" s="242"/>
       <c r="E7" s="5" t="str">
         <f>記入!B16</f>
         <v>${na.deliveryfinshdate}</v>
@@ -4739,50 +4190,50 @@
     </row>
     <row r="8" spans="2:9" ht="17.25" customHeight="1">
       <c r="B8" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="21" customHeight="1">
       <c r="B9" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="21.75" customHeight="1">
@@ -4792,38 +4243,38 @@
       <c r="E10" s="18"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="245" t="s">
-        <v>131</v>
-      </c>
-      <c r="I10" s="246"/>
+      <c r="H10" s="237" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="238"/>
     </row>
     <row r="11" spans="2:9" ht="62.25" customHeight="1">
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
-      <c r="D11" s="247" t="str">
+      <c r="D11" s="239" t="str">
         <f>記入!B11</f>
         <v>${na.pjnamechinese}</v>
       </c>
-      <c r="E11" s="248"/>
-      <c r="F11" s="248"/>
-      <c r="G11" s="248"/>
-      <c r="H11" s="248"/>
-      <c r="I11" s="248"/>
+      <c r="E11" s="240"/>
+      <c r="F11" s="240"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="240"/>
+      <c r="I11" s="240"/>
     </row>
     <row r="12" spans="2:9" ht="28.5" customHeight="1">
       <c r="B12" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="30" t="e">
@@ -4835,14 +4286,14 @@
       <c r="B13" s="3"/>
       <c r="C13" s="22"/>
       <c r="D13" s="24" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="30">
@@ -4893,7 +4344,7 @@
       <c r="B18" s="3"/>
       <c r="C18" s="22"/>
       <c r="D18" s="26" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="3"/>
@@ -4908,7 +4359,7 @@
       <c r="E19" s="26"/>
       <c r="F19" s="3"/>
       <c r="G19" s="25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="32" t="str">
@@ -4958,7 +4409,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -4980,6 +4431,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="D11:I11"/>
     <mergeCell ref="B5:D5"/>
@@ -4987,13 +4443,8 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:I4"/>
   </mergeCells>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
